--- a/table/dredge/bio_env_d.xlsx
+++ b/table/dredge/bio_env_d.xlsx
@@ -441,28 +441,28 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.116776571973537</v>
+        <v>1.116776571973543</v>
       </c>
       <c r="B2">
-        <v>-1.005698658633026</v>
+        <v>-1.005698658633027</v>
       </c>
       <c r="C2">
-        <v>-0.8092985539342725</v>
+        <v>-0.8092985539342732</v>
       </c>
       <c r="D2">
-        <v>0.4656979088188694</v>
+        <v>0.4656979088188696</v>
       </c>
       <c r="F2">
-        <v>-1.852626751493759</v>
+        <v>-1.852626751493761</v>
       </c>
       <c r="G2">
-        <v>0.5189705991820578</v>
+        <v>0.5189705991820585</v>
       </c>
       <c r="H2">
-        <v>1.999003303704644</v>
+        <v>1.999003303704646</v>
       </c>
       <c r="I2">
-        <v>0.4782717275043588</v>
+        <v>0.4782717275043582</v>
       </c>
       <c r="J2">
         <v>8</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1449907358709358</v>
+        <v>0.1449907358709359</v>
       </c>
       <c r="O2">
-        <v>0.35787289538998</v>
+        <v>0.3578728953899794</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>1.116776571973541</v>
       </c>
       <c r="D3">
-        <v>0.2564648813126384</v>
+        <v>0.2564648813126387</v>
       </c>
       <c r="I3">
-        <v>0.142846047092849</v>
+        <v>0.1428460470928486</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3">
-        <v>-29.91268329659278</v>
+        <v>-29.91268329659277</v>
       </c>
       <c r="L3">
-        <v>66.65295280008211</v>
+        <v>66.6529528000821</v>
       </c>
       <c r="M3">
         <v>1.211117411212243</v>
       </c>
       <c r="N3">
-        <v>0.07913150938804678</v>
+        <v>0.07913150938804683</v>
       </c>
       <c r="O3">
-        <v>0.1151959195797151</v>
+        <v>0.1151959195797148</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -523,31 +523,31 @@
         <v>1.116776571973541</v>
       </c>
       <c r="D4">
-        <v>0.2115957221369114</v>
+        <v>0.2115957221369116</v>
       </c>
       <c r="E4">
-        <v>-0.130627646482832</v>
+        <v>-0.1306276464828319</v>
       </c>
       <c r="I4">
-        <v>0.1755318190823549</v>
+        <v>0.1755318190823543</v>
       </c>
       <c r="J4">
         <v>4</v>
       </c>
       <c r="K4">
-        <v>-29.27117988159717</v>
+        <v>-29.27117988159718</v>
       </c>
       <c r="L4">
-        <v>67.97093119176577</v>
+        <v>67.97093119176579</v>
       </c>
       <c r="M4">
-        <v>2.52909580289591</v>
+        <v>2.529095802895924</v>
       </c>
       <c r="N4">
-        <v>0.04094058823641456</v>
+        <v>0.0409405882364143</v>
       </c>
       <c r="O4">
-        <v>0.1205672736878453</v>
+        <v>0.1205672736878446</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="D5">
-        <v>0.228040883805373</v>
+        <v>0.2280408838053732</v>
       </c>
       <c r="F5">
         <v>-0.1186068702735806</v>
       </c>
       <c r="I5">
-        <v>0.1716428984717896</v>
+        <v>0.1716428984717893</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -579,10 +579,10 @@
         <v>2.684387010425965</v>
       </c>
       <c r="N5">
-        <v>0.03788201058372783</v>
+        <v>0.03788201058372786</v>
       </c>
       <c r="O5">
-        <v>0.1164190917032423</v>
+        <v>0.1164190917032418</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -590,19 +590,19 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B6">
-        <v>-0.5086593708872939</v>
+        <v>-0.5086593708872933</v>
       </c>
       <c r="F6">
-        <v>-0.6504195247652083</v>
+        <v>-0.6504195247652077</v>
       </c>
       <c r="H6">
-        <v>0.4669578441506236</v>
+        <v>0.4669578441506231</v>
       </c>
       <c r="I6">
-        <v>0.2306446564645797</v>
+        <v>0.230644656464579</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -611,16 +611,16 @@
         <v>-28.12961746043661</v>
       </c>
       <c r="L6">
-        <v>68.48145714309544</v>
+        <v>68.48145714309545</v>
       </c>
       <c r="M6">
-        <v>3.039621754225578</v>
+        <v>3.039621754225593</v>
       </c>
       <c r="N6">
-        <v>0.03171719531328831</v>
+        <v>0.03171719531328811</v>
       </c>
       <c r="O6">
-        <v>0.1510561726505707</v>
+        <v>0.1510561726505699</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>1.116776571973541</v>
       </c>
       <c r="E7">
-        <v>-0.2033084486950326</v>
+        <v>-0.2033084486950327</v>
       </c>
       <c r="I7">
-        <v>0.08976835608611411</v>
+        <v>0.08976835608611333</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -643,16 +643,16 @@
         <v>-30.90402931279741</v>
       </c>
       <c r="L7">
-        <v>68.63564483249137</v>
+        <v>68.63564483249138</v>
       </c>
       <c r="M7">
-        <v>3.193809443621504</v>
+        <v>3.193809443621518</v>
       </c>
       <c r="N7">
-        <v>0.02936387355227927</v>
+        <v>0.02936387355227909</v>
       </c>
       <c r="O7">
-        <v>0.06040604499211777</v>
+        <v>0.06040604499211699</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -663,13 +663,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="D8">
-        <v>0.2427578304528255</v>
+        <v>0.2427578304528257</v>
       </c>
       <c r="G8">
-        <v>-0.04188814385254543</v>
+        <v>-0.04188814385254542</v>
       </c>
       <c r="I8">
-        <v>0.14624862053246</v>
+        <v>0.1462486205324597</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -681,13 +681,13 @@
         <v>69.12267994520838</v>
       </c>
       <c r="M8">
-        <v>3.680844556338514</v>
+        <v>3.680844556338513</v>
       </c>
       <c r="N8">
-        <v>0.02301733371032886</v>
+        <v>0.02301733371032888</v>
       </c>
       <c r="O8">
-        <v>0.08933186190129072</v>
+        <v>0.08933186190129028</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -695,31 +695,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.116776571973537</v>
+        <v>1.116776571973543</v>
       </c>
       <c r="B9">
-        <v>-0.9855849058642939</v>
+        <v>-0.9855849058642924</v>
       </c>
       <c r="C9">
-        <v>-0.8037559251017642</v>
+        <v>-0.8037559251017637</v>
       </c>
       <c r="D9">
-        <v>0.4553399193126501</v>
+        <v>0.4553399193126497</v>
       </c>
       <c r="E9">
-        <v>-0.03726890249150678</v>
+        <v>-0.0372689024915071</v>
       </c>
       <c r="F9">
-        <v>-1.816962576466628</v>
+        <v>-1.816962576466626</v>
       </c>
       <c r="G9">
-        <v>0.5159973363497511</v>
+        <v>0.515997336349751</v>
       </c>
       <c r="H9">
-        <v>1.963294929689595</v>
+        <v>1.963294929689594</v>
       </c>
       <c r="I9">
-        <v>0.4805100588438215</v>
+        <v>0.4805100588438211</v>
       </c>
       <c r="J9">
         <v>9</v>
@@ -734,10 +734,10 @@
         <v>3.684204982083713</v>
       </c>
       <c r="N9">
-        <v>0.02297869216204006</v>
+        <v>0.02297869216204008</v>
       </c>
       <c r="O9">
-        <v>0.3350528753200915</v>
+        <v>0.3350528753200911</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -748,13 +748,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="D10">
-        <v>0.2519546745690352</v>
+        <v>0.2519546745690355</v>
       </c>
       <c r="H10">
-        <v>-0.02690429264832506</v>
+        <v>-0.02690429264832504</v>
       </c>
       <c r="I10">
-        <v>0.1443738801489631</v>
+        <v>0.1443738801489627</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -766,13 +766,13 @@
         <v>69.19506472561544</v>
       </c>
       <c r="M10">
-        <v>3.753229336745577</v>
+        <v>3.753229336745576</v>
       </c>
       <c r="N10">
-        <v>0.02219917623063098</v>
+        <v>0.02219917623063099</v>
       </c>
       <c r="O10">
-        <v>0.08733213882556068</v>
+        <v>0.08733213882556023</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -783,13 +783,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B11">
-        <v>-0.01472963025698246</v>
+        <v>-0.01472963025698248</v>
       </c>
       <c r="D11">
         <v>0.2543809970110804</v>
       </c>
       <c r="I11">
-        <v>0.1433078061005008</v>
+        <v>0.1433078061005001</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -798,16 +798,16 @@
         <v>-29.90379215566416</v>
       </c>
       <c r="L11">
-        <v>69.23615573989974</v>
+        <v>69.23615573989976</v>
       </c>
       <c r="M11">
-        <v>3.794320351029882</v>
+        <v>3.794320351029896</v>
       </c>
       <c r="N11">
-        <v>0.02174773630787288</v>
+        <v>0.02174773630787274</v>
       </c>
       <c r="O11">
-        <v>0.08619499317386747</v>
+        <v>0.08619499317386681</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -818,13 +818,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C12">
-        <v>-0.006380643778902639</v>
+        <v>-0.006380643778902761</v>
       </c>
       <c r="D12">
-        <v>0.2587557147951398</v>
+        <v>0.25875571479514</v>
       </c>
       <c r="I12">
-        <v>0.1429230680076415</v>
+        <v>0.1429230680076411</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -839,10 +839,10 @@
         <v>3.809137232820817</v>
       </c>
       <c r="N12">
-        <v>0.021587214829951</v>
+        <v>0.02158721482995102</v>
       </c>
       <c r="O12">
-        <v>0.08578460587481762</v>
+        <v>0.08578460587481718</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -859,16 +859,16 @@
         <v>2</v>
       </c>
       <c r="K13">
-        <v>-32.45595592166236</v>
+        <v>-32.45595592166235</v>
       </c>
       <c r="L13">
-        <v>69.31191184332472</v>
+        <v>69.31191184332471</v>
       </c>
       <c r="M13">
-        <v>3.870076454454861</v>
+        <v>3.870076454454846</v>
       </c>
       <c r="N13">
-        <v>0.0209393805445851</v>
+        <v>0.02093938054458526</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -879,13 +879,13 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="F14">
-        <v>-0.1732566009163962</v>
+        <v>-0.173256600916396</v>
       </c>
       <c r="I14">
-        <v>0.06519165381396397</v>
+        <v>0.06519165381396363</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -900,10 +900,10 @@
         <v>4.073008975856027</v>
       </c>
       <c r="N14">
-        <v>0.01891897453129567</v>
+        <v>0.01891897453129569</v>
       </c>
       <c r="O14">
-        <v>0.03503654587247895</v>
+        <v>0.03503654587247862</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -914,13 +914,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="E15">
-        <v>-0.1730621013152923</v>
+        <v>-0.1730621013152924</v>
       </c>
       <c r="F15">
-        <v>-0.1342724607050288</v>
+        <v>-0.1342724607050287</v>
       </c>
       <c r="I15">
-        <v>0.1269364547970313</v>
+        <v>0.126936454797031</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -935,10 +935,10 @@
         <v>4.41899898425072</v>
       </c>
       <c r="N15">
-        <v>0.01591354061327005</v>
+        <v>0.01591354061327006</v>
       </c>
       <c r="O15">
-        <v>0.06873221845016675</v>
+        <v>0.06873221845016642</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
@@ -949,16 +949,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="D16">
-        <v>0.1929609993843282</v>
+        <v>0.1929609993843285</v>
       </c>
       <c r="E16">
         <v>-0.1142126695708797</v>
       </c>
       <c r="F16">
-        <v>-0.1012860645003683</v>
+        <v>-0.1012860645003682</v>
       </c>
       <c r="I16">
-        <v>0.1960159388832362</v>
+        <v>0.1960159388832355</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -967,16 +967,16 @@
         <v>-28.85605465272066</v>
       </c>
       <c r="L16">
-        <v>69.93433152766353</v>
+        <v>69.93433152766355</v>
       </c>
       <c r="M16">
-        <v>4.492496138793669</v>
+        <v>4.492496138793683</v>
       </c>
       <c r="N16">
-        <v>0.01533935549574316</v>
+        <v>0.01533935549574306</v>
       </c>
       <c r="O16">
-        <v>0.1128451739401227</v>
+        <v>0.1128451739401219</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -984,22 +984,22 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>1.11677657197354</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B17">
-        <v>-0.4077106312256654</v>
+        <v>-0.4077106312256653</v>
       </c>
       <c r="D17">
         <v>0.1367488704256504</v>
       </c>
       <c r="F17">
-        <v>-0.5306170958315269</v>
+        <v>-0.5306170958315268</v>
       </c>
       <c r="H17">
-        <v>0.3884950247598136</v>
+        <v>0.3884950247598135</v>
       </c>
       <c r="I17">
-        <v>0.2623954409072556</v>
+        <v>0.2623954409072553</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -1014,10 +1014,10 @@
         <v>4.65738063460671</v>
       </c>
       <c r="N17">
-        <v>0.01412546974172499</v>
+        <v>0.014125469741725</v>
       </c>
       <c r="O17">
-        <v>0.1570233610368635</v>
+        <v>0.1570233610368632</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B18">
-        <v>-0.09603988659061874</v>
+        <v>-0.09603988659061873</v>
       </c>
       <c r="D18">
         <v>0.2028146834246497</v>
@@ -1037,7 +1037,7 @@
         <v>-0.1671733214653153</v>
       </c>
       <c r="I18">
-        <v>0.186445218924017</v>
+        <v>0.1864452189240166</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1052,10 +1052,10 @@
         <v>4.883012194629259</v>
       </c>
       <c r="N18">
-        <v>0.01261849698953977</v>
+        <v>0.01261849698953978</v>
       </c>
       <c r="O18">
-        <v>0.1022843795023636</v>
+        <v>0.1022843795023631</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -1063,43 +1063,43 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B19">
-        <v>-0.5747621997331904</v>
+        <v>-0.5747621997331902</v>
       </c>
       <c r="C19">
-        <v>-0.3860984231053325</v>
+        <v>-0.386098423105332</v>
       </c>
       <c r="D19">
-        <v>0.2551822029036547</v>
+        <v>0.2551822029036545</v>
       </c>
       <c r="F19">
-        <v>-0.8688426294417401</v>
+        <v>-0.8688426294417398</v>
       </c>
       <c r="H19">
-        <v>0.8925667847565376</v>
+        <v>0.8925667847565371</v>
       </c>
       <c r="I19">
-        <v>0.3257864661591741</v>
+        <v>0.3257864661591735</v>
       </c>
       <c r="J19">
         <v>7</v>
       </c>
       <c r="K19">
-        <v>-25.95151728110901</v>
+        <v>-25.95151728110902</v>
       </c>
       <c r="L19">
-        <v>70.38303456221802</v>
+        <v>70.38303456221803</v>
       </c>
       <c r="M19">
-        <v>4.941199173348153</v>
+        <v>4.941199173348167</v>
       </c>
       <c r="N19">
-        <v>0.01225666981068676</v>
+        <v>0.01225666981068668</v>
       </c>
       <c r="O19">
-        <v>0.2009321080405025</v>
+        <v>0.2009321080405019</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B20">
         <v>-0.1584950217836768</v>
@@ -1116,7 +1116,7 @@
         <v>-0.2434292189768822</v>
       </c>
       <c r="I20">
-        <v>0.1090536111615157</v>
+        <v>0.1090536111615154</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1131,10 +1131,10 @@
         <v>5.08810412483902</v>
       </c>
       <c r="N20">
-        <v>0.01138865617267514</v>
+        <v>0.01138865617267515</v>
       </c>
       <c r="O20">
-        <v>0.04965718523895002</v>
+        <v>0.04965718523894969</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -1145,16 +1145,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="D21">
-        <v>0.200927696346282</v>
+        <v>0.2009276963462822</v>
       </c>
       <c r="E21">
-        <v>-0.1384605894621362</v>
+        <v>-0.1384605894621361</v>
       </c>
       <c r="H21">
-        <v>-0.047587372605625</v>
+        <v>-0.04758737260562502</v>
       </c>
       <c r="I21">
-        <v>0.1801941631235241</v>
+        <v>0.1801941631235238</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -1166,13 +1166,13 @@
         <v>70.5774382806116</v>
       </c>
       <c r="M21">
-        <v>5.135602891741741</v>
+        <v>5.13560289174174</v>
       </c>
       <c r="N21">
-        <v>0.01112136912464517</v>
+        <v>0.01112136912464518</v>
       </c>
       <c r="O21">
-        <v>0.09538666275699215</v>
+        <v>0.0953866627569917</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -1183,16 +1183,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C22">
-        <v>-0.04442222541187229</v>
+        <v>-0.04442222541187244</v>
       </c>
       <c r="D22">
-        <v>0.2235174054368651</v>
+        <v>0.2235174054368652</v>
       </c>
       <c r="E22">
         <v>-0.14235193839054</v>
       </c>
       <c r="I22">
-        <v>0.1790017042020435</v>
+        <v>0.1790017042020432</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -1210,7 +1210,7 @@
         <v>0.01085782001266186</v>
       </c>
       <c r="O22">
-        <v>0.09407084601604798</v>
+        <v>0.09407084601604765</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -1221,31 +1221,31 @@
         <v>1.116776571973541</v>
       </c>
       <c r="E23">
-        <v>-0.2109841693109098</v>
+        <v>-0.2109841693109099</v>
       </c>
       <c r="H23">
-        <v>-0.08762364961680909</v>
+        <v>-0.0876236496168091</v>
       </c>
       <c r="I23">
-        <v>0.1063149903541393</v>
+        <v>0.1063149903541386</v>
       </c>
       <c r="J23">
         <v>4</v>
       </c>
       <c r="K23">
-        <v>-30.60132450404458</v>
+        <v>-30.60132450404459</v>
       </c>
       <c r="L23">
-        <v>70.6312204366606</v>
+        <v>70.63122043666061</v>
       </c>
       <c r="M23">
-        <v>5.189385047790736</v>
+        <v>5.189385047790751</v>
       </c>
       <c r="N23">
-        <v>0.01082628881516096</v>
+        <v>0.01082628881516089</v>
       </c>
       <c r="O23">
-        <v>0.04673598971108184</v>
+        <v>0.04673598971108117</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -1256,16 +1256,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B24">
-        <v>-0.03589119641500244</v>
+        <v>-0.03589119641500247</v>
       </c>
       <c r="D24">
-        <v>0.204399060401078</v>
+        <v>0.2043990604010779</v>
       </c>
       <c r="E24">
-        <v>-0.1367964924085243</v>
+        <v>-0.1367964924085244</v>
       </c>
       <c r="I24">
-        <v>0.1782005461838988</v>
+        <v>0.178200546183898</v>
       </c>
       <c r="J24">
         <v>5</v>
@@ -1274,16 +1274,16 @@
         <v>-29.21768428365347</v>
       </c>
       <c r="L24">
-        <v>70.65759078952915</v>
+        <v>70.65759078952917</v>
       </c>
       <c r="M24">
-        <v>5.21575540065929</v>
+        <v>5.215755400659305</v>
       </c>
       <c r="N24">
-        <v>0.01068447923362801</v>
+        <v>0.01068447923362794</v>
       </c>
       <c r="O24">
-        <v>0.09318680958223313</v>
+        <v>0.09318680958223235</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -1294,10 +1294,10 @@
         <v>1.116776571973541</v>
       </c>
       <c r="G25">
-        <v>-0.1213257513136963</v>
+        <v>-0.1213257513136965</v>
       </c>
       <c r="I25">
-        <v>0.0319682157600294</v>
+        <v>0.03196821576002895</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -1306,16 +1306,16 @@
         <v>-31.91986502644388</v>
       </c>
       <c r="L25">
-        <v>70.66731625978432</v>
+        <v>70.66731625978431</v>
       </c>
       <c r="M25">
         <v>5.225480870914453</v>
       </c>
       <c r="N25">
-        <v>0.01063264956025657</v>
+        <v>0.01063264956025658</v>
       </c>
       <c r="O25">
-        <v>0.0007413840103529523</v>
+        <v>0.0007413840103525082</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -1323,22 +1323,22 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B26">
         <v>-0.5910762949557935</v>
       </c>
       <c r="F26">
-        <v>-0.8337377153640059</v>
+        <v>-0.8337377153640061</v>
       </c>
       <c r="G26">
-        <v>0.1391380511148109</v>
+        <v>0.139138051114811</v>
       </c>
       <c r="H26">
-        <v>0.62788211804654</v>
+        <v>0.6278821180465401</v>
       </c>
       <c r="I26">
-        <v>0.2478744031281851</v>
+        <v>0.2478744031281848</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -1353,10 +1353,10 @@
         <v>5.300731273800267</v>
       </c>
       <c r="N26">
-        <v>0.01024002655565909</v>
+        <v>0.0102400265556591</v>
       </c>
       <c r="O26">
-        <v>0.1404278892893544</v>
+        <v>0.140427889289354</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -1367,16 +1367,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="D27">
-        <v>0.2100395479410077</v>
+        <v>0.2100395479410079</v>
       </c>
       <c r="E27">
         <v>-0.1287738659318362</v>
       </c>
       <c r="G27">
-        <v>-0.006701489622185279</v>
+        <v>-0.006701489622185186</v>
       </c>
       <c r="I27">
-        <v>0.1756123263018072</v>
+        <v>0.1756123263018069</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -1394,7 +1394,7 @@
         <v>0.01014425781851116</v>
       </c>
       <c r="O27">
-        <v>0.09033084281578729</v>
+        <v>0.09033084281578696</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -1402,16 +1402,16 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="D28">
-        <v>0.2299430483532741</v>
+        <v>0.2299430483532743</v>
       </c>
       <c r="F28">
         <v>-0.1433892364764551</v>
       </c>
       <c r="H28">
-        <v>0.04677451549165626</v>
+        <v>0.04677451549165616</v>
       </c>
       <c r="I28">
         <v>0.1750036521941033</v>
@@ -1420,16 +1420,16 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>-29.28174664893559</v>
+        <v>-29.28174664893558</v>
       </c>
       <c r="L28">
-        <v>70.78571552009341</v>
+        <v>70.78571552009339</v>
       </c>
       <c r="M28">
-        <v>5.343880131223543</v>
+        <v>5.343880131223528</v>
       </c>
       <c r="N28">
-        <v>0.0100214699272367</v>
+        <v>0.01002146992723678</v>
       </c>
       <c r="O28">
         <v>0.0896592024210795</v>
@@ -1443,13 +1443,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B29">
-        <v>-0.07242798863662198</v>
+        <v>-0.07242798863662196</v>
       </c>
       <c r="E29">
         <v>-0.2107686900956443</v>
       </c>
       <c r="I29">
-        <v>0.1010401496417962</v>
+        <v>0.1010401496417958</v>
       </c>
       <c r="J29">
         <v>4</v>
@@ -1464,10 +1464,10 @@
         <v>5.383589990190075</v>
       </c>
       <c r="N29">
-        <v>0.009824456662890592</v>
+        <v>0.009824456662890599</v>
       </c>
       <c r="O29">
-        <v>0.04110949295124933</v>
+        <v>0.04110949295124877</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -1475,40 +1475,40 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B30">
-        <v>-0.6133994248350573</v>
+        <v>-0.6133994248350569</v>
       </c>
       <c r="C30">
-        <v>-0.1589123716366233</v>
+        <v>-0.1589123716366227</v>
       </c>
       <c r="F30">
-        <v>-0.83233281011495</v>
+        <v>-0.8323328101149496</v>
       </c>
       <c r="H30">
-        <v>0.7023950849749169</v>
+        <v>0.702395084974916</v>
       </c>
       <c r="I30">
-        <v>0.2454175994968108</v>
+        <v>0.2454175994968101</v>
       </c>
       <c r="J30">
         <v>6</v>
       </c>
       <c r="K30">
-        <v>-27.80970780957036</v>
+        <v>-27.80970780957037</v>
       </c>
       <c r="L30">
-        <v>70.85018484990995</v>
+        <v>70.85018484990997</v>
       </c>
       <c r="M30">
-        <v>5.408349461040089</v>
+        <v>5.408349461040103</v>
       </c>
       <c r="N30">
-        <v>0.009703582229206254</v>
+        <v>0.009703582229206193</v>
       </c>
       <c r="O30">
-        <v>0.1376201137106409</v>
+        <v>0.1376201137106401</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -1516,37 +1516,37 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="D31">
-        <v>0.2294273178285033</v>
+        <v>0.2294273178285036</v>
       </c>
       <c r="F31">
         <v>-0.1207915474766769</v>
       </c>
       <c r="G31">
-        <v>0.005836843365788914</v>
+        <v>0.005836843365788943</v>
       </c>
       <c r="I31">
-        <v>0.171699194860571</v>
+        <v>0.1716991948605711</v>
       </c>
       <c r="J31">
         <v>5</v>
       </c>
       <c r="K31">
-        <v>-29.34770408255295</v>
+        <v>-29.34770408255294</v>
       </c>
       <c r="L31">
-        <v>70.91763038732813</v>
+        <v>70.9176303873281</v>
       </c>
       <c r="M31">
-        <v>5.475794998458269</v>
+        <v>5.475794998458241</v>
       </c>
       <c r="N31">
-        <v>0.009381806645528738</v>
+        <v>0.00938180664552888</v>
       </c>
       <c r="O31">
-        <v>0.08601290467373346</v>
+        <v>0.08601290467373357</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
@@ -1554,19 +1554,19 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="C32">
-        <v>-0.001955199615499236</v>
+        <v>-0.001955199615499358</v>
       </c>
       <c r="D32">
-        <v>0.2287590228069474</v>
+        <v>0.2287590228069475</v>
       </c>
       <c r="F32">
         <v>-0.1185394113256632</v>
       </c>
       <c r="I32">
-        <v>0.1716501212139886</v>
+        <v>0.1716501212139883</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -1581,10 +1581,10 @@
         <v>5.477750064005164</v>
       </c>
       <c r="N32">
-        <v>0.009372640103086355</v>
+        <v>0.009372640103086362</v>
       </c>
       <c r="O32">
-        <v>0.08595875444302192</v>
+        <v>0.08595875444302148</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
@@ -1592,40 +1592,40 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1.11677657197354</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B33">
-        <v>-0.4563628966769517</v>
+        <v>-0.4563628966769515</v>
       </c>
       <c r="E33">
-        <v>-0.08722173518541841</v>
+        <v>-0.08722173518541827</v>
       </c>
       <c r="F33">
-        <v>-0.5697333201584155</v>
+        <v>-0.5697333201584156</v>
       </c>
       <c r="H33">
         <v>0.3967454621109534</v>
       </c>
       <c r="I33">
-        <v>0.2435790486162276</v>
+        <v>0.2435790486162269</v>
       </c>
       <c r="J33">
         <v>6</v>
       </c>
       <c r="K33">
-        <v>-27.84986139951842</v>
+        <v>-27.84986139951843</v>
       </c>
       <c r="L33">
-        <v>70.93049202980608</v>
+        <v>70.93049202980609</v>
       </c>
       <c r="M33">
-        <v>5.488656640936213</v>
+        <v>5.488656640936227</v>
       </c>
       <c r="N33">
-        <v>0.009321667503385729</v>
+        <v>0.00932166750338567</v>
       </c>
       <c r="O33">
-        <v>0.1355189127042601</v>
+        <v>0.1355189127042593</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -1633,19 +1633,19 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B34">
         <v>-0.1592010095436643</v>
       </c>
       <c r="E34">
-        <v>-0.1736104130306379</v>
+        <v>-0.1736104130306378</v>
       </c>
       <c r="F34">
-        <v>-0.2046341369169578</v>
+        <v>-0.2046341369169579</v>
       </c>
       <c r="I34">
-        <v>0.1711894131153045</v>
+        <v>0.1711894131153041</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -1660,10 +1660,10 @@
         <v>5.4960987610242</v>
       </c>
       <c r="N34">
-        <v>0.00928704547416914</v>
+        <v>0.009287045474169147</v>
       </c>
       <c r="O34">
-        <v>0.08545038688585316</v>
+        <v>0.08545038688585282</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -1674,10 +1674,10 @@
         <v>1.116776571973541</v>
       </c>
       <c r="E35">
-        <v>-0.1833581351852181</v>
+        <v>-0.1833581351852182</v>
       </c>
       <c r="G35">
-        <v>-0.05597969282482324</v>
+        <v>-0.0559796928248233</v>
       </c>
       <c r="I35">
         <v>0.09570967186461732</v>
@@ -1686,16 +1686,16 @@
         <v>4</v>
       </c>
       <c r="K35">
-        <v>-30.79597654496683</v>
+        <v>-30.79597654496682</v>
       </c>
       <c r="L35">
-        <v>71.02052451850508</v>
+        <v>71.02052451850507</v>
       </c>
       <c r="M35">
-        <v>5.578689129635222</v>
+        <v>5.578689129635208</v>
       </c>
       <c r="N35">
-        <v>0.008911345899529083</v>
+        <v>0.008911345899529154</v>
       </c>
       <c r="O35">
         <v>0.03542364998892511</v>
@@ -1709,7 +1709,7 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C36">
-        <v>0.08652005335784471</v>
+        <v>0.08652005335784473</v>
       </c>
       <c r="I36">
         <v>0.01625720851925161</v>
@@ -1718,16 +1718,16 @@
         <v>3</v>
       </c>
       <c r="K36">
-        <v>-32.18550760830731</v>
+        <v>-32.1855076083073</v>
       </c>
       <c r="L36">
-        <v>71.19860142351118</v>
+        <v>71.19860142351116</v>
       </c>
       <c r="M36">
-        <v>5.756766034641316</v>
+        <v>5.756766034641302</v>
       </c>
       <c r="N36">
-        <v>0.008152191872565233</v>
+        <v>0.008152191872565297</v>
       </c>
       <c r="O36">
         <v>-0.01547642991561116</v>
@@ -1741,7 +1741,7 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C37">
-        <v>0.01617023973031134</v>
+        <v>0.01617023973031128</v>
       </c>
       <c r="E37">
         <v>-0.1975500426940703</v>
@@ -1753,16 +1753,16 @@
         <v>4</v>
       </c>
       <c r="K37">
-        <v>-30.895038441363</v>
+        <v>-30.89503844136299</v>
       </c>
       <c r="L37">
-        <v>71.21864831129743</v>
+        <v>71.21864831129741</v>
       </c>
       <c r="M37">
-        <v>5.776812922427567</v>
+        <v>5.776812922427553</v>
       </c>
       <c r="N37">
-        <v>0.008070886992894478</v>
+        <v>0.008070886992894542</v>
       </c>
       <c r="O37">
         <v>0.02961515454298302</v>
@@ -1779,7 +1779,7 @@
         <v>-0.06914170387401482</v>
       </c>
       <c r="I38">
-        <v>0.01038227610912346</v>
+        <v>0.01038227610912301</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -1794,10 +1794,10 @@
         <v>5.953256580396001</v>
       </c>
       <c r="N38">
-        <v>0.007389363191795386</v>
+        <v>0.007389363191795392</v>
       </c>
       <c r="O38">
-        <v>-0.02154087627445311</v>
+        <v>-0.02154087627445356</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -1805,19 +1805,19 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>1.11677657197354</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B39">
         <v>-0.2316413911545054</v>
       </c>
       <c r="C39">
-        <v>0.1618682712875744</v>
+        <v>0.1618682712875745</v>
       </c>
       <c r="F39">
-        <v>-0.2671511032931149</v>
+        <v>-0.267151103293115</v>
       </c>
       <c r="I39">
-        <v>0.1564516594869669</v>
+        <v>0.1564516594869666</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -1832,10 +1832,10 @@
         <v>6.077742393150629</v>
       </c>
       <c r="N39">
-        <v>0.00694344919530185</v>
+        <v>0.006943449195301855</v>
       </c>
       <c r="O39">
-        <v>0.06918803805458418</v>
+        <v>0.06918803805458384</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -1846,28 +1846,28 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B40">
-        <v>-0.05071835210794527</v>
+        <v>-0.05071835210794529</v>
       </c>
       <c r="I40">
-        <v>0.005586537106960776</v>
+        <v>0.005586537106959999</v>
       </c>
       <c r="J40">
         <v>3</v>
       </c>
       <c r="K40">
-        <v>-32.36351961889912</v>
+        <v>-32.36351961889913</v>
       </c>
       <c r="L40">
-        <v>71.55462544469479</v>
+        <v>71.55462544469481</v>
       </c>
       <c r="M40">
-        <v>6.112790055824931</v>
+        <v>6.112790055824945</v>
       </c>
       <c r="N40">
-        <v>0.006822833275812627</v>
+        <v>0.006822833275812583</v>
       </c>
       <c r="O40">
-        <v>-0.02649131653475023</v>
+        <v>-0.0264913165347509</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="C41">
-        <v>0.07746926744497144</v>
+        <v>0.07746926744497147</v>
       </c>
       <c r="F41">
-        <v>-0.1691104481375855</v>
+        <v>-0.1691104481375854</v>
       </c>
       <c r="I41">
-        <v>0.07818812789279084</v>
+        <v>0.07818812789279039</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -1899,10 +1899,10 @@
         <v>6.211981939101506</v>
       </c>
       <c r="N41">
-        <v>0.006492702671281813</v>
+        <v>0.006492702671281818</v>
       </c>
       <c r="O41">
-        <v>0.01673400308564355</v>
+        <v>0.0167340030856431</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
@@ -1913,16 +1913,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="D42">
-        <v>0.2309973496035668</v>
+        <v>0.2309973496035671</v>
       </c>
       <c r="G42">
-        <v>-0.05568196500081755</v>
+        <v>-0.05568196500081756</v>
       </c>
       <c r="H42">
-        <v>-0.04322821090480071</v>
+        <v>-0.04322821090480076</v>
       </c>
       <c r="I42">
-        <v>0.1498239233882838</v>
+        <v>0.1498239233882834</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -1937,10 +1937,10 @@
         <v>6.336009210835584</v>
       </c>
       <c r="N42">
-        <v>0.006102296919083817</v>
+        <v>0.006102296919083822</v>
       </c>
       <c r="O42">
-        <v>0.06187467408362346</v>
+        <v>0.06187467408362313</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -1951,16 +1951,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B43">
-        <v>-0.04515566368162293</v>
+        <v>-0.04515566368162299</v>
       </c>
       <c r="D43">
         <v>0.2287857326844583</v>
       </c>
       <c r="G43">
-        <v>-0.06506350549177133</v>
+        <v>-0.06506350549177141</v>
       </c>
       <c r="I43">
-        <v>0.149546739265477</v>
+        <v>0.1495467392654766</v>
       </c>
       <c r="J43">
         <v>5</v>
@@ -1975,10 +1975,10 @@
         <v>6.346766494545506</v>
       </c>
       <c r="N43">
-        <v>0.006069562960498801</v>
+        <v>0.006069562960498805</v>
       </c>
       <c r="O43">
-        <v>0.06156881574121598</v>
+        <v>0.06156881574121553</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -1989,16 +1989,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C44">
-        <v>-0.02531385572685847</v>
+        <v>-0.0253138557268586</v>
       </c>
       <c r="D44">
-        <v>0.2488490276624776</v>
+        <v>0.2488490276624777</v>
       </c>
       <c r="G44">
-        <v>-0.0510474565848533</v>
+        <v>-0.05104745658485329</v>
       </c>
       <c r="I44">
-        <v>0.1472981956016112</v>
+        <v>0.1472981956016107</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -2013,10 +2013,10 @@
         <v>6.433901231173664</v>
       </c>
       <c r="N44">
-        <v>0.005810805690117076</v>
+        <v>0.00581080569011708</v>
       </c>
       <c r="O44">
-        <v>0.05908766411212263</v>
+        <v>0.05908766411212218</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
@@ -2024,16 +2024,16 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="F45">
-        <v>-0.1485640670655113</v>
+        <v>-0.1485640670655111</v>
       </c>
       <c r="G45">
-        <v>-0.05726269508547185</v>
+        <v>-0.05726269508547189</v>
       </c>
       <c r="I45">
-        <v>0.07098872982996884</v>
+        <v>0.07098872982996851</v>
       </c>
       <c r="J45">
         <v>4</v>
@@ -2048,10 +2048,10 @@
         <v>6.468712394776091</v>
       </c>
       <c r="N45">
-        <v>0.005710540355890022</v>
+        <v>0.005710540355890026</v>
       </c>
       <c r="O45">
-        <v>0.009054645151966745</v>
+        <v>0.009054645151966412</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
@@ -2062,10 +2062,10 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C46">
-        <v>0.2123315050483907</v>
+        <v>0.2123315050483909</v>
       </c>
       <c r="H46">
-        <v>-0.2016303583813491</v>
+        <v>-0.2016303583813492</v>
       </c>
       <c r="I46">
         <v>0.07017400359387116</v>
@@ -2074,19 +2074,19 @@
         <v>4</v>
       </c>
       <c r="K46">
-        <v>-31.25545204051027</v>
+        <v>-31.25545204051026</v>
       </c>
       <c r="L46">
-        <v>71.93947550959196</v>
+        <v>71.93947550959194</v>
       </c>
       <c r="M46">
-        <v>6.497640120722096</v>
+        <v>6.497640120722082</v>
       </c>
       <c r="N46">
-        <v>0.005628538345189939</v>
+        <v>0.005628538345189983</v>
       </c>
       <c r="O46">
-        <v>0.008185603833462563</v>
+        <v>0.008185603833462562</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
@@ -2097,16 +2097,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C47">
-        <v>0.03298814922192561</v>
+        <v>0.03298814922192551</v>
       </c>
       <c r="D47">
-        <v>0.2362181254025696</v>
+        <v>0.2362181254025698</v>
       </c>
       <c r="H47">
-        <v>-0.05012599201241887</v>
+        <v>-0.05012599201241885</v>
       </c>
       <c r="I47">
-        <v>0.1452943863852244</v>
+        <v>0.1452943863852241</v>
       </c>
       <c r="J47">
         <v>5</v>
@@ -2121,10 +2121,10 @@
         <v>6.511358707113104</v>
       </c>
       <c r="N47">
-        <v>0.005590062659279746</v>
+        <v>0.00559006265927975</v>
       </c>
       <c r="O47">
-        <v>0.05687656428714416</v>
+        <v>0.05687656428714383</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
@@ -2132,25 +2132,25 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B48">
-        <v>-0.4976788825023311</v>
+        <v>-0.4976788825023307</v>
       </c>
       <c r="D48">
-        <v>0.1660452448401417</v>
+        <v>0.1660452448401418</v>
       </c>
       <c r="F48">
-        <v>-0.7531695743050461</v>
+        <v>-0.7531695743050459</v>
       </c>
       <c r="G48">
-        <v>0.1883970990224696</v>
+        <v>0.1883970990224697</v>
       </c>
       <c r="H48">
-        <v>0.5895818528615908</v>
+        <v>0.5895818528615906</v>
       </c>
       <c r="I48">
-        <v>0.2925271599351206</v>
+        <v>0.2925271599351199</v>
       </c>
       <c r="J48">
         <v>7</v>
@@ -2159,16 +2159,16 @@
         <v>-26.7460312814214</v>
       </c>
       <c r="L48">
-        <v>71.97206256284279</v>
+        <v>71.97206256284281</v>
       </c>
       <c r="M48">
-        <v>6.530227173972932</v>
+        <v>6.530227173972946</v>
       </c>
       <c r="N48">
-        <v>0.005537572693878238</v>
+        <v>0.005537572693878203</v>
       </c>
       <c r="O48">
-        <v>0.161513671034217</v>
+        <v>0.1615136710342162</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
@@ -2179,13 +2179,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B49">
-        <v>-0.006133238601922765</v>
+        <v>-0.006133238601922745</v>
       </c>
       <c r="D49">
-        <v>0.2514469546526969</v>
+        <v>0.2514469546526968</v>
       </c>
       <c r="H49">
-        <v>-0.02475691478148991</v>
+        <v>-0.02475691478149002</v>
       </c>
       <c r="I49">
         <v>0.1444442063119993</v>
@@ -2194,16 +2194,16 @@
         <v>5</v>
       </c>
       <c r="K49">
-        <v>-29.88189041435243</v>
+        <v>-29.88189041435242</v>
       </c>
       <c r="L49">
-        <v>71.98600305092708</v>
+        <v>71.98600305092707</v>
       </c>
       <c r="M49">
-        <v>6.54416766205722</v>
+        <v>6.544167662057205</v>
       </c>
       <c r="N49">
-        <v>0.005499108668352036</v>
+        <v>0.005499108668352079</v>
       </c>
       <c r="O49">
         <v>0.05593843455117165</v>
@@ -2217,34 +2217,34 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B50">
-        <v>-0.01531849822403068</v>
+        <v>-0.0153184982240307</v>
       </c>
       <c r="C50">
-        <v>0.001318146402781494</v>
+        <v>0.001318146402781496</v>
       </c>
       <c r="D50">
         <v>0.253824434288532</v>
       </c>
       <c r="I50">
-        <v>0.1433103551364992</v>
+        <v>0.1433103551364984</v>
       </c>
       <c r="J50">
         <v>5</v>
       </c>
       <c r="K50">
-        <v>-29.90374306083541</v>
+        <v>-29.90374306083542</v>
       </c>
       <c r="L50">
-        <v>72.02970834389305</v>
+        <v>72.02970834389306</v>
       </c>
       <c r="M50">
-        <v>6.587872955023187</v>
+        <v>6.587872955023201</v>
       </c>
       <c r="N50">
-        <v>0.005380242095488125</v>
+        <v>0.00538024209548809</v>
       </c>
       <c r="O50">
-        <v>0.05468728842648185</v>
+        <v>0.05468728842648096</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
@@ -2252,16 +2252,16 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="F51">
-        <v>-0.1917857906697694</v>
+        <v>-0.1917857906697692</v>
       </c>
       <c r="H51">
-        <v>0.03434053399428377</v>
+        <v>0.0343405339942837</v>
       </c>
       <c r="I51">
-        <v>0.06700712037562373</v>
+        <v>0.0670071203756234</v>
       </c>
       <c r="J51">
         <v>4</v>
@@ -2276,10 +2276,10 @@
         <v>6.609843457533941</v>
       </c>
       <c r="N51">
-        <v>0.005321462231151151</v>
+        <v>0.005321462231151155</v>
       </c>
       <c r="O51">
-        <v>0.004807595067331971</v>
+        <v>0.004807595067331638</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
@@ -2287,22 +2287,22 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B52">
         <v>-0.1093807032007789</v>
       </c>
       <c r="D52">
-        <v>0.1611335535382434</v>
+        <v>0.1611335535382433</v>
       </c>
       <c r="E52">
-        <v>-0.1242961579548736</v>
+        <v>-0.1242961579548738</v>
       </c>
       <c r="F52">
         <v>-0.155069637796956</v>
       </c>
       <c r="I52">
-        <v>0.2150262581464838</v>
+        <v>0.2150262581464835</v>
       </c>
       <c r="J52">
         <v>6</v>
@@ -2317,10 +2317,10 @@
         <v>6.711380301522524</v>
       </c>
       <c r="N52">
-        <v>0.005058043250258674</v>
+        <v>0.005058043250258678</v>
       </c>
       <c r="O52">
-        <v>0.1028871521674101</v>
+        <v>0.1028871521674096</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
@@ -2334,10 +2334,10 @@
         <v>-0.1212883153346726</v>
       </c>
       <c r="G53">
-        <v>-0.1712942294222151</v>
+        <v>-0.1712942294222152</v>
       </c>
       <c r="I53">
-        <v>0.05849414277970244</v>
+        <v>0.058494142779702</v>
       </c>
       <c r="J53">
         <v>4</v>
@@ -2352,10 +2352,10 @@
         <v>6.909582461400419</v>
       </c>
       <c r="N53">
-        <v>0.004580822738104553</v>
+        <v>0.004580822738104557</v>
       </c>
       <c r="O53">
-        <v>-0.004272914368317338</v>
+        <v>-0.004272914368317782</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
@@ -2363,25 +2363,25 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>1.116776571973539</v>
+        <v>1.116776571973543</v>
       </c>
       <c r="B54">
-        <v>-0.8059209564444007</v>
+        <v>-0.8059209564443994</v>
       </c>
       <c r="C54">
-        <v>-0.2569929971056094</v>
+        <v>-0.2569929971056081</v>
       </c>
       <c r="F54">
-        <v>-1.22904148773169</v>
+        <v>-1.229041487731688</v>
       </c>
       <c r="G54">
-        <v>0.2158831062480925</v>
+        <v>0.2158831062480926</v>
       </c>
       <c r="H54">
-        <v>1.097392878666477</v>
+        <v>1.097392878666474</v>
       </c>
       <c r="I54">
-        <v>0.281268693812569</v>
+        <v>0.2812686938125685</v>
       </c>
       <c r="J54">
         <v>7</v>
@@ -2390,16 +2390,16 @@
         <v>-27.00653893780235</v>
       </c>
       <c r="L54">
-        <v>72.4930778756047</v>
+        <v>72.49307787560471</v>
       </c>
       <c r="M54">
-        <v>7.051242486734836</v>
+        <v>7.05124248673485</v>
       </c>
       <c r="N54">
-        <v>0.004267587189245767</v>
+        <v>0.00426758718924574</v>
       </c>
       <c r="O54">
-        <v>0.1481703037778596</v>
+        <v>0.1481703037778589</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
@@ -2410,13 +2410,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="G55">
-        <v>-0.1449029862163764</v>
+        <v>-0.1449029862163765</v>
       </c>
       <c r="H55">
-        <v>-0.1024792869636946</v>
+        <v>-0.1024792869636948</v>
       </c>
       <c r="I55">
-        <v>0.05356882682870245</v>
+        <v>0.05356882682870201</v>
       </c>
       <c r="J55">
         <v>4</v>
@@ -2428,13 +2428,13 @@
         <v>72.52360134210056</v>
       </c>
       <c r="M55">
-        <v>7.081765953230701</v>
+        <v>7.0817659532307</v>
       </c>
       <c r="N55">
-        <v>0.004202950897461137</v>
+        <v>0.004202950897461141</v>
       </c>
       <c r="O55">
-        <v>-0.009526584716050612</v>
+        <v>-0.009526584716051278</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B56">
         <v>-0.1883001321138911</v>
@@ -2451,16 +2451,16 @@
         <v>-0.2098827138700228</v>
       </c>
       <c r="G56">
-        <v>-0.108397245514586</v>
+        <v>-0.1083972455145859</v>
       </c>
       <c r="I56">
-        <v>0.1282756458488735</v>
+        <v>0.1282756458488731</v>
       </c>
       <c r="J56">
         <v>5</v>
       </c>
       <c r="K56">
-        <v>-30.19080271259814</v>
+        <v>-30.19080271259813</v>
       </c>
       <c r="L56">
         <v>72.6038276474185</v>
@@ -2469,10 +2469,10 @@
         <v>7.161992258548636</v>
       </c>
       <c r="N56">
-        <v>0.004037693933902389</v>
+        <v>0.004037693933902391</v>
       </c>
       <c r="O56">
-        <v>0.03809726438496386</v>
+        <v>0.03809726438496341</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
@@ -2483,13 +2483,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C57">
-        <v>0.02029313344109461</v>
+        <v>0.02029313344109455</v>
       </c>
       <c r="E57">
         <v>-0.1657069188251755</v>
       </c>
       <c r="F57">
-        <v>-0.1348432085225343</v>
+        <v>-0.1348432085225342</v>
       </c>
       <c r="I57">
         <v>0.1277167216031552</v>
@@ -2498,16 +2498,16 @@
         <v>5</v>
       </c>
       <c r="K57">
-        <v>-30.20137864150805</v>
+        <v>-30.20137864150804</v>
       </c>
       <c r="L57">
-        <v>72.62497950523833</v>
+        <v>72.62497950523831</v>
       </c>
       <c r="M57">
-        <v>7.183144116368467</v>
+        <v>7.183144116368453</v>
       </c>
       <c r="N57">
-        <v>0.003995216584535552</v>
+        <v>0.003995216584535584</v>
       </c>
       <c r="O57">
         <v>0.03748052038968841</v>
@@ -2521,22 +2521,22 @@
         <v>1.116776571973541</v>
       </c>
       <c r="E58">
-        <v>-0.1770019774854942</v>
+        <v>-0.1770019774854943</v>
       </c>
       <c r="F58">
-        <v>-0.1237361862389768</v>
+        <v>-0.1237361862389767</v>
       </c>
       <c r="H58">
-        <v>-0.01788227429540042</v>
+        <v>-0.01788227429540053</v>
       </c>
       <c r="I58">
-        <v>0.1273967424181419</v>
+        <v>0.1273967424181416</v>
       </c>
       <c r="J58">
         <v>5</v>
       </c>
       <c r="K58">
-        <v>-30.20743021735902</v>
+        <v>-30.20743021735901</v>
       </c>
       <c r="L58">
         <v>72.63708265694025</v>
@@ -2545,10 +2545,10 @@
         <v>7.195247268070389</v>
       </c>
       <c r="N58">
-        <v>0.00397111223653988</v>
+        <v>0.003971112236539883</v>
       </c>
       <c r="O58">
-        <v>0.03712743990967382</v>
+        <v>0.03712743990967349</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
@@ -2559,16 +2559,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="E59">
-        <v>-0.1724195271763145</v>
+        <v>-0.1724195271763146</v>
       </c>
       <c r="F59">
-        <v>-0.1334026324819372</v>
+        <v>-0.133402632481937</v>
       </c>
       <c r="G59">
-        <v>-0.002352828814190253</v>
+        <v>-0.002352828814190313</v>
       </c>
       <c r="I59">
-        <v>0.1269453904959356</v>
+        <v>0.1269453904959351</v>
       </c>
       <c r="J59">
         <v>5</v>
@@ -2583,10 +2583,10 @@
         <v>7.212312025197846</v>
       </c>
       <c r="N59">
-        <v>0.003937373344803509</v>
+        <v>0.003937373344803511</v>
       </c>
       <c r="O59">
-        <v>0.03662939640930818</v>
+        <v>0.03662939640930774</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
@@ -2597,7 +2597,7 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C60">
-        <v>0.1272641005739388</v>
+        <v>0.1272641005739387</v>
       </c>
       <c r="E60">
         <v>-0.1723234480711712</v>
@@ -2606,25 +2606,25 @@
         <v>-0.1636460993623899</v>
       </c>
       <c r="I60">
-        <v>0.1245733645980665</v>
+        <v>0.1245733645980657</v>
       </c>
       <c r="J60">
         <v>5</v>
       </c>
       <c r="K60">
-        <v>-30.26073110738292</v>
+        <v>-30.26073110738293</v>
       </c>
       <c r="L60">
-        <v>72.74368443698808</v>
+        <v>72.74368443698809</v>
       </c>
       <c r="M60">
-        <v>7.301849048118214</v>
+        <v>7.301849048118228</v>
       </c>
       <c r="N60">
-        <v>0.003764990453942145</v>
+        <v>0.003764990453942121</v>
       </c>
       <c r="O60">
-        <v>0.03401198852200438</v>
+        <v>0.03401198852200349</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
@@ -2635,19 +2635,19 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C61">
-        <v>-0.03587221476311822</v>
+        <v>-0.03587221476311835</v>
       </c>
       <c r="D61">
-        <v>0.2030923642215212</v>
+        <v>0.2030923642215213</v>
       </c>
       <c r="E61">
         <v>-0.1241245677419641</v>
       </c>
       <c r="F61">
-        <v>-0.09854521061123074</v>
+        <v>-0.09854521061123078</v>
       </c>
       <c r="I61">
-        <v>0.1982636591453901</v>
+        <v>0.1982636591453895</v>
       </c>
       <c r="J61">
         <v>6</v>
@@ -2656,16 +2656,16 @@
         <v>-28.80986054756481</v>
       </c>
       <c r="L61">
-        <v>72.85049032589885</v>
+        <v>72.85049032589886</v>
       </c>
       <c r="M61">
-        <v>7.408654937028985</v>
+        <v>7.408654937028999</v>
       </c>
       <c r="N61">
-        <v>0.003569203213266062</v>
+        <v>0.003569203213266039</v>
       </c>
       <c r="O61">
-        <v>0.08372989616616011</v>
+        <v>0.08372989616615933</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
@@ -2676,10 +2676,10 @@
         <v>1.116776571973541</v>
       </c>
       <c r="D62">
-        <v>0.1991403022731893</v>
+        <v>0.1991403022731895</v>
       </c>
       <c r="E62">
-        <v>-0.1222828502251966</v>
+        <v>-0.1222828502251965</v>
       </c>
       <c r="F62">
         <v>-0.1137050896499796</v>
@@ -2688,25 +2688,25 @@
         <v>0.03644999414611162</v>
       </c>
       <c r="I62">
-        <v>0.1980896798521155</v>
+        <v>0.1980896798521148</v>
       </c>
       <c r="J62">
         <v>6</v>
       </c>
       <c r="K62">
-        <v>-28.81344071072681</v>
+        <v>-28.81344071072682</v>
       </c>
       <c r="L62">
-        <v>72.85765065222284</v>
+        <v>72.85765065222286</v>
       </c>
       <c r="M62">
-        <v>7.415815263352982</v>
+        <v>7.415815263352997</v>
       </c>
       <c r="N62">
-        <v>0.003556447730383722</v>
+        <v>0.0035564477303837</v>
       </c>
       <c r="O62">
-        <v>0.08353106268813193</v>
+        <v>0.08353106268813115</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
@@ -2717,7 +2717,7 @@
         <v>1.116776571973541</v>
       </c>
       <c r="D63">
-        <v>0.1944037605116603</v>
+        <v>0.1944037605116606</v>
       </c>
       <c r="E63">
         <v>-0.1111134077295975</v>
@@ -2726,10 +2726,10 @@
         <v>-0.1081509592631317</v>
       </c>
       <c r="H63">
-        <v>0.01206976694055606</v>
+        <v>0.01206976694055602</v>
       </c>
       <c r="I63">
-        <v>0.1962217688562339</v>
+        <v>0.1962217688562335</v>
       </c>
       <c r="J63">
         <v>6</v>
@@ -2744,10 +2744,10 @@
         <v>7.492593653060666</v>
       </c>
       <c r="N63">
-        <v>0.003422505972690102</v>
+        <v>0.003422505972690105</v>
       </c>
       <c r="O63">
-        <v>0.08139630726426728</v>
+        <v>0.08139630726426694</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
@@ -2764,10 +2764,10 @@
         <v>-0.1777407157273798</v>
       </c>
       <c r="G64">
-        <v>-0.1040852906351916</v>
+        <v>-0.1040852906351917</v>
       </c>
       <c r="I64">
-        <v>0.1182311303817019</v>
+        <v>0.1182311303817015</v>
       </c>
       <c r="J64">
         <v>5</v>
@@ -2782,10 +2782,10 @@
         <v>7.540063449842165</v>
       </c>
       <c r="N64">
-        <v>0.003342229585706426</v>
+        <v>0.003342229585706428</v>
       </c>
       <c r="O64">
-        <v>0.02701366111084347</v>
+        <v>0.02701366111084302</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
@@ -2796,13 +2796,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="E65">
-        <v>-0.1840231978854695</v>
+        <v>-0.1840231978854696</v>
       </c>
       <c r="G65">
-        <v>-0.07957051565364472</v>
+        <v>-0.0795705156536448</v>
       </c>
       <c r="H65">
-        <v>-0.1035685556308247</v>
+        <v>-0.1035685556308248</v>
       </c>
       <c r="I65">
         <v>0.1177710774373845</v>
@@ -2811,16 +2811,16 @@
         <v>5</v>
       </c>
       <c r="K65">
-        <v>-30.38844475184363</v>
+        <v>-30.38844475184362</v>
       </c>
       <c r="L65">
-        <v>72.99911172590949</v>
+        <v>72.99911172590947</v>
       </c>
       <c r="M65">
-        <v>7.557276337039625</v>
+        <v>7.55727633703961</v>
       </c>
       <c r="N65">
-        <v>0.00331358830187019</v>
+        <v>0.003313588301870216</v>
       </c>
       <c r="O65">
         <v>0.02650601648263118</v>
@@ -2831,22 +2831,22 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B66">
-        <v>-0.1396654864201079</v>
+        <v>-0.1396654864201078</v>
       </c>
       <c r="C66">
         <v>0.07096873249263619</v>
       </c>
       <c r="D66">
-        <v>0.1652892138382487</v>
+        <v>0.1652892138382488</v>
       </c>
       <c r="F66">
-        <v>-0.1916829564708758</v>
+        <v>-0.1916829564708757</v>
       </c>
       <c r="I66">
-        <v>0.1929069260297415</v>
+        <v>0.192906926029741</v>
       </c>
       <c r="J66">
         <v>6</v>
@@ -2858,13 +2858,13 @@
         <v>73.07024369991322</v>
       </c>
       <c r="M66">
-        <v>7.628408311043359</v>
+        <v>7.628408311043358</v>
       </c>
       <c r="N66">
-        <v>0.00319780838126364</v>
+        <v>0.003197808381263643</v>
       </c>
       <c r="O66">
-        <v>0.07760791546256163</v>
+        <v>0.07760791546256118</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
@@ -2872,43 +2872,43 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>1.11677657197354</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B67">
-        <v>-0.381434928274306</v>
+        <v>-0.3814349282743056</v>
       </c>
       <c r="D67">
         <v>0.1235342984257951</v>
       </c>
       <c r="E67">
-        <v>-0.06009327243812313</v>
+        <v>-0.06009327243812334</v>
       </c>
       <c r="F67">
-        <v>-0.4866035882503613</v>
+        <v>-0.4866035882503608</v>
       </c>
       <c r="H67">
-        <v>0.3477028740649427</v>
+        <v>0.3477028740649424</v>
       </c>
       <c r="I67">
-        <v>0.268238664861823</v>
+        <v>0.2682386648618231</v>
       </c>
       <c r="J67">
         <v>7</v>
       </c>
       <c r="K67">
-        <v>-27.30299168087175</v>
+        <v>-27.30299168087174</v>
       </c>
       <c r="L67">
-        <v>73.0859833617435</v>
+        <v>73.08598336174347</v>
       </c>
       <c r="M67">
-        <v>7.64414797287364</v>
+        <v>7.644147972873611</v>
       </c>
       <c r="N67">
-        <v>0.00317274093765304</v>
+        <v>0.003172740937653088</v>
       </c>
       <c r="O67">
-        <v>0.1327273065029013</v>
+        <v>0.1327273065029014</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -2919,13 +2919,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C68">
-        <v>0.04103191009225325</v>
+        <v>0.04103191009225318</v>
       </c>
       <c r="G68">
-        <v>-0.1032483083565513</v>
+        <v>-0.1032483083565514</v>
       </c>
       <c r="I68">
-        <v>0.03491491519946488</v>
+        <v>0.03491491519946455</v>
       </c>
       <c r="J68">
         <v>4</v>
@@ -2940,10 +2940,10 @@
         <v>7.725860528203384</v>
       </c>
       <c r="N68">
-        <v>0.003045726881261891</v>
+        <v>0.003045726881261893</v>
       </c>
       <c r="O68">
-        <v>-0.02942409045390404</v>
+        <v>-0.02942409045390448</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
@@ -2954,13 +2954,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B69">
-        <v>-0.09903456779302287</v>
+        <v>-0.0990345677930229</v>
       </c>
       <c r="C69">
         <v>0.1248468236869384</v>
       </c>
       <c r="I69">
-        <v>0.03436733187101282</v>
+        <v>0.03436733187101193</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -2969,16 +2969,16 @@
         <v>-31.87892158758114</v>
       </c>
       <c r="L69">
-        <v>73.1864146037337</v>
+        <v>73.18641460373371</v>
       </c>
       <c r="M69">
-        <v>7.744579214863833</v>
+        <v>7.744579214863847</v>
       </c>
       <c r="N69">
-        <v>0.003017353861224367</v>
+        <v>0.003017353861224348</v>
       </c>
       <c r="O69">
-        <v>-0.03000817933758637</v>
+        <v>-0.03000817933758726</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
@@ -2986,22 +2986,22 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1.11677657197354</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B70">
-        <v>-0.2070511814215628</v>
+        <v>-0.2070511814215626</v>
       </c>
       <c r="C70">
-        <v>0.1062344065956022</v>
+        <v>0.1062344065956021</v>
       </c>
       <c r="E70">
         <v>-0.1352708889998784</v>
       </c>
       <c r="F70">
-        <v>-0.2287702196577342</v>
+        <v>-0.2287702196577341</v>
       </c>
       <c r="I70">
-        <v>0.1885749724973906</v>
+        <v>0.1885749724973903</v>
       </c>
       <c r="J70">
         <v>6</v>
@@ -3016,10 +3016,10 @@
         <v>7.805057318300115</v>
       </c>
       <c r="N70">
-        <v>0.002927477675539295</v>
+        <v>0.002927477675539297</v>
       </c>
       <c r="O70">
-        <v>0.07265711142558928</v>
+        <v>0.07265711142558895</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B71">
         <v>-0.1090165966663704</v>
@@ -3036,13 +3036,13 @@
         <v>0.1912677192992139</v>
       </c>
       <c r="F71">
-        <v>-0.1609113310412122</v>
+        <v>-0.1609113310412121</v>
       </c>
       <c r="G71">
         <v>-0.03426262667619091</v>
       </c>
       <c r="I71">
-        <v>0.1881148144936624</v>
+        <v>0.1881148144936621</v>
       </c>
       <c r="J71">
         <v>6</v>
@@ -3057,10 +3057,10 @@
         <v>7.823766267961219</v>
       </c>
       <c r="N71">
-        <v>0.002900220347068171</v>
+        <v>0.002900220347068173</v>
       </c>
       <c r="O71">
-        <v>0.07213121656418564</v>
+        <v>0.0721312165641852</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
@@ -3071,16 +3071,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B72">
-        <v>-0.04702561832208331</v>
+        <v>-0.04702561832208334</v>
       </c>
       <c r="E72">
-        <v>-0.2143543209106129</v>
+        <v>-0.2143543209106128</v>
       </c>
       <c r="H72">
-        <v>-0.07080160200512786</v>
+        <v>-0.07080160200512781</v>
       </c>
       <c r="I72">
-        <v>0.1104568400990043</v>
+        <v>0.1104568400990039</v>
       </c>
       <c r="J72">
         <v>5</v>
@@ -3095,10 +3095,10 @@
         <v>7.829739376407844</v>
       </c>
       <c r="N72">
-        <v>0.002891571603141989</v>
+        <v>0.002891571603141992</v>
       </c>
       <c r="O72">
-        <v>0.01843513390234952</v>
+        <v>0.01843513390234919</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
@@ -3106,13 +3106,13 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B73">
-        <v>-0.5391916661312722</v>
+        <v>-0.539191666131272</v>
       </c>
       <c r="E73">
-        <v>-0.09075629047772305</v>
+        <v>-0.09075629047772292</v>
       </c>
       <c r="F73">
         <v>-0.7554116639260051</v>
@@ -3124,7 +3124,7 @@
         <v>0.5597665911479213</v>
       </c>
       <c r="I73">
-        <v>0.2618620866527676</v>
+        <v>0.2618620866527672</v>
       </c>
       <c r="J73">
         <v>7</v>
@@ -3139,10 +3139,10 @@
         <v>7.930464740707748</v>
       </c>
       <c r="N73">
-        <v>0.002749550598179484</v>
+        <v>0.002749550598179486</v>
       </c>
       <c r="O73">
-        <v>0.1251698804773541</v>
+        <v>0.1251698804773538</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
@@ -3150,40 +3150,40 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="C74">
-        <v>-0.1364309126222374</v>
+        <v>-0.1364309126222375</v>
       </c>
       <c r="D74">
-        <v>0.2852851965770463</v>
+        <v>0.2852851965770464</v>
       </c>
       <c r="F74">
-        <v>-0.2068404303544852</v>
+        <v>-0.2068404303544851</v>
       </c>
       <c r="H74">
-        <v>0.1754174025871869</v>
+        <v>0.1754174025871866</v>
       </c>
       <c r="I74">
-        <v>0.1847506489664783</v>
+        <v>0.1847506489664776</v>
       </c>
       <c r="J74">
         <v>6</v>
       </c>
       <c r="K74">
-        <v>-29.0856451259413</v>
+        <v>-29.08564512594131</v>
       </c>
       <c r="L74">
-        <v>73.40205948265184</v>
+        <v>73.40205948265185</v>
       </c>
       <c r="M74">
-        <v>7.960224093781974</v>
+        <v>7.960224093781989</v>
       </c>
       <c r="N74">
-        <v>0.002708941052368651</v>
+        <v>0.002708941052368633</v>
       </c>
       <c r="O74">
-        <v>0.06828645596168947</v>
+        <v>0.0682864559616887</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
@@ -3191,43 +3191,43 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B75">
-        <v>-0.5647888251810599</v>
+        <v>-0.5647888251810601</v>
       </c>
       <c r="C75">
-        <v>-0.1717602276368936</v>
+        <v>-0.1717602276368942</v>
       </c>
       <c r="E75">
-        <v>-0.09519767640020777</v>
+        <v>-0.09519767640020801</v>
       </c>
       <c r="F75">
-        <v>-0.7589757517014224</v>
+        <v>-0.7589757517014227</v>
       </c>
       <c r="H75">
-        <v>0.6447969631087799</v>
+        <v>0.644796963108781</v>
       </c>
       <c r="I75">
-        <v>0.260729142662837</v>
+        <v>0.2607291426628362</v>
       </c>
       <c r="J75">
         <v>7</v>
       </c>
       <c r="K75">
-        <v>-27.47145596505019</v>
+        <v>-27.4714559650502</v>
       </c>
       <c r="L75">
-        <v>73.42291193010038</v>
+        <v>73.42291193010041</v>
       </c>
       <c r="M75">
-        <v>7.981076541230522</v>
+        <v>7.98107654123055</v>
       </c>
       <c r="N75">
-        <v>0.002680843755779525</v>
+        <v>0.002680843755779489</v>
       </c>
       <c r="O75">
-        <v>0.1238271320448439</v>
+        <v>0.1238271320448429</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
@@ -3241,13 +3241,13 @@
         <v>-0.09109419677357601</v>
       </c>
       <c r="C76">
-        <v>0.05271744142057899</v>
+        <v>0.05271744142057901</v>
       </c>
       <c r="E76">
-        <v>-0.1939180708394463</v>
+        <v>-0.1939180708394464</v>
       </c>
       <c r="I76">
-        <v>0.1055616773520145</v>
+        <v>0.1055616773520138</v>
       </c>
       <c r="J76">
         <v>5</v>
@@ -3256,16 +3256,16 @@
         <v>-30.61522697379701</v>
       </c>
       <c r="L76">
-        <v>73.45267616981624</v>
+        <v>73.45267616981626</v>
       </c>
       <c r="M76">
-        <v>8.010840780946381</v>
+        <v>8.010840780946396</v>
       </c>
       <c r="N76">
-        <v>0.002641242523722393</v>
+        <v>0.002641242523722376</v>
       </c>
       <c r="O76">
-        <v>0.01303357500911939</v>
+        <v>0.01303357500911873</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
@@ -3276,16 +3276,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B77">
-        <v>-0.02265136788332432</v>
+        <v>-0.02265136788332435</v>
       </c>
       <c r="D77">
-        <v>0.1980748441194431</v>
+        <v>0.198074844119443</v>
       </c>
       <c r="E77">
-        <v>-0.1411136479103849</v>
+        <v>-0.1411136479103851</v>
       </c>
       <c r="H77">
-        <v>-0.04005295552895046</v>
+        <v>-0.04005295552895043</v>
       </c>
       <c r="I77">
         <v>0.1811402491000335</v>
@@ -3294,16 +3294,16 @@
         <v>6</v>
       </c>
       <c r="K77">
-        <v>-29.15855542875767</v>
+        <v>-29.15855542875766</v>
       </c>
       <c r="L77">
-        <v>73.54788008828456</v>
+        <v>73.54788008828454</v>
       </c>
       <c r="M77">
-        <v>8.106044699414696</v>
+        <v>8.106044699414682</v>
       </c>
       <c r="N77">
-        <v>0.002518459739387636</v>
+        <v>0.002518459739387656</v>
       </c>
       <c r="O77">
         <v>0.06416028468575252</v>
@@ -3317,16 +3317,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="D78">
-        <v>0.1943895293597177</v>
+        <v>0.194389529359718</v>
       </c>
       <c r="E78">
         <v>-0.1331838809177103</v>
       </c>
       <c r="G78">
-        <v>-0.02253812238850743</v>
+        <v>-0.02253812238850735</v>
       </c>
       <c r="H78">
-        <v>-0.05340649833094372</v>
+        <v>-0.05340649833094375</v>
       </c>
       <c r="I78">
         <v>0.1810350463919418</v>
@@ -3338,13 +3338,13 @@
         <v>-29.16067512408418</v>
       </c>
       <c r="L78">
-        <v>73.5521194789376</v>
+        <v>73.55211947893758</v>
       </c>
       <c r="M78">
-        <v>8.110284090067736</v>
+        <v>8.110284090067722</v>
       </c>
       <c r="N78">
-        <v>0.002513127025908651</v>
+        <v>0.002513127025908671</v>
       </c>
       <c r="O78">
         <v>0.064040053019362</v>
@@ -3358,37 +3358,37 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C79">
-        <v>-0.01415586549668745</v>
+        <v>-0.01415586549668753</v>
       </c>
       <c r="D79">
-        <v>0.2068886848334753</v>
+        <v>0.2068886848334755</v>
       </c>
       <c r="E79">
         <v>-0.1406093253671533</v>
       </c>
       <c r="H79">
-        <v>-0.03794345902009231</v>
+        <v>-0.03794345902009238</v>
       </c>
       <c r="I79">
-        <v>0.1803550419212658</v>
+        <v>0.1803550419212652</v>
       </c>
       <c r="J79">
         <v>6</v>
       </c>
       <c r="K79">
-        <v>-29.17436974942511</v>
+        <v>-29.17436974942512</v>
       </c>
       <c r="L79">
-        <v>73.57950872961946</v>
+        <v>73.57950872961948</v>
       </c>
       <c r="M79">
-        <v>8.137673340749601</v>
+        <v>8.137673340749615</v>
       </c>
       <c r="N79">
-        <v>0.002478945280165306</v>
+        <v>0.00247894528016529</v>
       </c>
       <c r="O79">
-        <v>0.06326290505287524</v>
+        <v>0.06326290505287446</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
@@ -3399,16 +3399,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C80">
-        <v>-0.05174479216110607</v>
+        <v>-0.05174479216110627</v>
       </c>
       <c r="D80">
-        <v>0.2201606235539115</v>
+        <v>0.2201606235539116</v>
       </c>
       <c r="E80">
-        <v>-0.1379448356651242</v>
+        <v>-0.1379448356651241</v>
       </c>
       <c r="G80">
-        <v>-0.02291839823765561</v>
+        <v>-0.02291839823765576</v>
       </c>
       <c r="I80">
         <v>0.1798490069467309</v>
@@ -3417,16 +3417,16 @@
         <v>6</v>
       </c>
       <c r="K80">
-        <v>-29.184553427875</v>
+        <v>-29.18455342787499</v>
       </c>
       <c r="L80">
-        <v>73.59987608651923</v>
+        <v>73.59987608651922</v>
       </c>
       <c r="M80">
-        <v>8.158040697649369</v>
+        <v>8.158040697649355</v>
       </c>
       <c r="N80">
-        <v>0.002453828605670484</v>
+        <v>0.002453828605670503</v>
       </c>
       <c r="O80">
         <v>0.06268457936769245</v>
@@ -3443,7 +3443,7 @@
         <v>-0.02184201235929128</v>
       </c>
       <c r="C81">
-        <v>-0.03369120474920177</v>
+        <v>-0.03369120474920181</v>
       </c>
       <c r="D81">
         <v>0.2162578858459488</v>
@@ -3452,13 +3452,13 @@
         <v>-0.1432738402593633</v>
       </c>
       <c r="I81">
-        <v>0.1797875739163766</v>
+        <v>0.1797875739163762</v>
       </c>
       <c r="J81">
         <v>6</v>
       </c>
       <c r="K81">
-        <v>-29.18578930644861</v>
+        <v>-29.1857893064486</v>
       </c>
       <c r="L81">
         <v>73.60234784366644</v>
@@ -3467,10 +3467,10 @@
         <v>8.160512454796574</v>
       </c>
       <c r="N81">
-        <v>0.002450797844685488</v>
+        <v>0.00245079784468549</v>
       </c>
       <c r="O81">
-        <v>0.0626143701901446</v>
+        <v>0.06261437019014426</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
@@ -3481,37 +3481,37 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B82">
-        <v>-0.04977321283456768</v>
+        <v>-0.04977321283456771</v>
       </c>
       <c r="D82">
-        <v>0.1942295824278821</v>
+        <v>0.194229582427882</v>
       </c>
       <c r="E82">
-        <v>-0.1303840267106497</v>
+        <v>-0.1303840267106498</v>
       </c>
       <c r="G82">
-        <v>-0.03180676194999411</v>
+        <v>-0.0318067619499941</v>
       </c>
       <c r="I82">
-        <v>0.1796148630898117</v>
+        <v>0.179614863089811</v>
       </c>
       <c r="J82">
         <v>6</v>
       </c>
       <c r="K82">
-        <v>-29.1892633194706</v>
+        <v>-29.18926331947061</v>
       </c>
       <c r="L82">
-        <v>73.60929586971044</v>
+        <v>73.60929586971045</v>
       </c>
       <c r="M82">
-        <v>8.167460480840575</v>
+        <v>8.167460480840589</v>
       </c>
       <c r="N82">
-        <v>0.002442298513001272</v>
+        <v>0.002442298513001256</v>
       </c>
       <c r="O82">
-        <v>0.06241698638835624</v>
+        <v>0.06241698638835547</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
@@ -3519,22 +3519,22 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="D83">
-        <v>0.2456715038849828</v>
+        <v>0.2456715038849831</v>
       </c>
       <c r="F83">
-        <v>-0.1866379682378458</v>
+        <v>-0.1866379682378459</v>
       </c>
       <c r="G83">
-        <v>0.05942882634410201</v>
+        <v>0.05942882634410206</v>
       </c>
       <c r="H83">
-        <v>0.08641970930920416</v>
+        <v>0.0864197093092042</v>
       </c>
       <c r="I83">
-        <v>0.17842535480647</v>
+        <v>0.1784253548064697</v>
       </c>
       <c r="J83">
         <v>6</v>
@@ -3549,10 +3549,10 @@
         <v>8.215273808115896</v>
       </c>
       <c r="N83">
-        <v>0.002384603697054212</v>
+        <v>0.002384603697054214</v>
       </c>
       <c r="O83">
-        <v>0.06105754835025146</v>
+        <v>0.06105754835025112</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
@@ -3560,46 +3560,46 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.116776571973539</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B84">
-        <v>-0.5502853665353679</v>
+        <v>-0.5502853665353672</v>
       </c>
       <c r="C84">
-        <v>-0.3817730828185459</v>
+        <v>-0.3817730828185456</v>
       </c>
       <c r="D84">
-        <v>0.2424867240314814</v>
+        <v>0.2424867240314813</v>
       </c>
       <c r="E84">
-        <v>-0.05169920122237572</v>
+        <v>-0.0516992012223759</v>
       </c>
       <c r="F84">
-        <v>-0.8271880712923148</v>
+        <v>-0.8271880712923141</v>
       </c>
       <c r="H84">
-        <v>0.8518256877617125</v>
+        <v>0.8518256877617119</v>
       </c>
       <c r="I84">
-        <v>0.3301033350742149</v>
+        <v>0.330103335074214</v>
       </c>
       <c r="J84">
         <v>8</v>
       </c>
       <c r="K84">
-        <v>-25.84553105755219</v>
+        <v>-25.8455310575522</v>
       </c>
       <c r="L84">
-        <v>73.69106211510437</v>
+        <v>73.6910621151044</v>
       </c>
       <c r="M84">
-        <v>8.249226726234511</v>
+        <v>8.249226726234539</v>
       </c>
       <c r="N84">
-        <v>0.002344463255336738</v>
+        <v>0.002344463255336707</v>
       </c>
       <c r="O84">
-        <v>0.1755117970144183</v>
+        <v>0.1755117970144172</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B85">
         <v>-0.173957299493078</v>
@@ -3616,13 +3616,13 @@
         <v>-0.1589452547186039</v>
       </c>
       <c r="F85">
-        <v>-0.1912354727332383</v>
+        <v>-0.1912354727332384</v>
       </c>
       <c r="G85">
-        <v>-0.05388356357931771</v>
+        <v>-0.05388356357931766</v>
       </c>
       <c r="I85">
-        <v>0.1754958473465974</v>
+        <v>0.1754958473465971</v>
       </c>
       <c r="J85">
         <v>6</v>
@@ -3637,10 +3637,10 @@
         <v>8.332733371251109</v>
       </c>
       <c r="N85">
-        <v>0.002248589575233803</v>
+        <v>0.002248589575233805</v>
       </c>
       <c r="O85">
-        <v>0.05770953982468274</v>
+        <v>0.05770953982468241</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
@@ -3651,13 +3651,13 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C86">
-        <v>-0.004521890636530326</v>
+        <v>-0.004521890636530411</v>
       </c>
       <c r="E86">
         <v>-0.184389421910711</v>
       </c>
       <c r="G86">
-        <v>-0.05760436881353218</v>
+        <v>-0.05760436881353222</v>
       </c>
       <c r="I86">
         <v>0.09574344303933524</v>
@@ -3666,16 +3666,16 @@
         <v>5</v>
       </c>
       <c r="K86">
-        <v>-30.79536033270548</v>
+        <v>-30.79536033270547</v>
       </c>
       <c r="L86">
-        <v>73.81294288763318</v>
+        <v>73.81294288763317</v>
       </c>
       <c r="M86">
-        <v>8.371107498763323</v>
+        <v>8.371107498763308</v>
       </c>
       <c r="N86">
-        <v>0.002205857010878819</v>
+        <v>0.002205857010878836</v>
       </c>
       <c r="O86">
         <v>0.002199661284783661</v>
@@ -3686,22 +3686,22 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="C87">
-        <v>0.0003542647388496295</v>
+        <v>0.000354264738849477</v>
       </c>
       <c r="D87">
-        <v>0.2293342754053953</v>
+        <v>0.2293342754053955</v>
       </c>
       <c r="F87">
-        <v>-0.1208621961357512</v>
+        <v>-0.1208621961357511</v>
       </c>
       <c r="G87">
-        <v>0.00599294041020533</v>
+        <v>0.005992940410205232</v>
       </c>
       <c r="I87">
-        <v>0.1716993917209955</v>
+        <v>0.1716993917209948</v>
       </c>
       <c r="J87">
         <v>6</v>
@@ -3710,16 +3710,16 @@
         <v>-29.3477001610339</v>
       </c>
       <c r="L87">
-        <v>73.92616955283702</v>
+        <v>73.92616955283704</v>
       </c>
       <c r="M87">
-        <v>8.484334163967162</v>
+        <v>8.484334163967176</v>
       </c>
       <c r="N87">
-        <v>0.002084445281575794</v>
+        <v>0.00208444528157578</v>
       </c>
       <c r="O87">
-        <v>0.05337073339542342</v>
+        <v>0.05337073339542264</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
@@ -3730,31 +3730,31 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B88">
-        <v>-0.02945326956094946</v>
+        <v>-0.02945326956094949</v>
       </c>
       <c r="H88">
-        <v>-0.05842074910990911</v>
+        <v>-0.0584207491099091</v>
       </c>
       <c r="I88">
-        <v>0.01201664981510342</v>
+        <v>0.01201664981510253</v>
       </c>
       <c r="J88">
         <v>4</v>
       </c>
       <c r="K88">
-        <v>-32.25648027030092</v>
+        <v>-32.25648027030093</v>
       </c>
       <c r="L88">
-        <v>73.94153196917327</v>
+        <v>73.94153196917328</v>
       </c>
       <c r="M88">
-        <v>8.499696580303407</v>
+        <v>8.499696580303421</v>
       </c>
       <c r="N88">
-        <v>0.002068495558445413</v>
+        <v>0.0020684955584454</v>
       </c>
       <c r="O88">
-        <v>-0.05384890686388966</v>
+        <v>-0.05384890686389054</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
@@ -3768,19 +3768,19 @@
         <v>0.1673856913268592</v>
       </c>
       <c r="G89">
-        <v>-0.09240840338787079</v>
+        <v>-0.09240840338787092</v>
       </c>
       <c r="H89">
         <v>-0.1948457278843096</v>
       </c>
       <c r="I89">
-        <v>0.08505862366457107</v>
+        <v>0.08505862366457073</v>
       </c>
       <c r="J89">
         <v>5</v>
       </c>
       <c r="K89">
-        <v>-30.9891837135866</v>
+        <v>-30.98918371358659</v>
       </c>
       <c r="L89">
         <v>74.20058964939541</v>
@@ -3789,10 +3789,10 @@
         <v>8.758754260525549</v>
       </c>
       <c r="N89">
-        <v>0.001817192485290828</v>
+        <v>0.001817192485290829</v>
       </c>
       <c r="O89">
-        <v>-0.009590484232197438</v>
+        <v>-0.009590484232197882</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
@@ -3803,34 +3803,34 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C90">
-        <v>0.1384990072230266</v>
+        <v>0.1384990072230269</v>
       </c>
       <c r="F90">
-        <v>-0.1155482344775701</v>
+        <v>-0.1155482344775698</v>
       </c>
       <c r="H90">
-        <v>-0.09321444813720817</v>
+        <v>-0.09321444813720853</v>
       </c>
       <c r="I90">
-        <v>0.08349872904186517</v>
+        <v>0.08349872904186439</v>
       </c>
       <c r="J90">
         <v>5</v>
       </c>
       <c r="K90">
-        <v>-31.01729080996395</v>
+        <v>-31.01729080996396</v>
       </c>
       <c r="L90">
-        <v>74.25680384215012</v>
+        <v>74.25680384215013</v>
       </c>
       <c r="M90">
-        <v>8.814968453280258</v>
+        <v>8.814968453280272</v>
       </c>
       <c r="N90">
-        <v>0.001766827601967071</v>
+        <v>0.00176682760196706</v>
       </c>
       <c r="O90">
-        <v>-0.01131174726414885</v>
+        <v>-0.01131174726414974</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
@@ -3841,16 +3841,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B91">
-        <v>-0.0720626755543714</v>
+        <v>-0.07206267555437142</v>
       </c>
       <c r="C91">
         <v>0.2311985094279307</v>
       </c>
       <c r="H91">
-        <v>-0.1871720903953724</v>
+        <v>-0.1871720903953723</v>
       </c>
       <c r="I91">
-        <v>0.07948566546317037</v>
+        <v>0.07948566546317004</v>
       </c>
       <c r="J91">
         <v>5</v>
@@ -3865,10 +3865,10 @@
         <v>8.959149382791935</v>
       </c>
       <c r="N91">
-        <v>0.00164393894593993</v>
+        <v>0.001643938945939931</v>
       </c>
       <c r="O91">
-        <v>-0.01573995535098449</v>
+        <v>-0.01573995535098471</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>1.11677657197354</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B92">
         <v>-0.2365528808837957</v>
@@ -3888,10 +3888,10 @@
         <v>-0.2496722758089613</v>
       </c>
       <c r="G92">
-        <v>-0.04784066203149104</v>
+        <v>-0.04784066203149107</v>
       </c>
       <c r="I92">
-        <v>0.1595939337062958</v>
+        <v>0.1595939337062955</v>
       </c>
       <c r="J92">
         <v>6</v>
@@ -3906,10 +3906,10 @@
         <v>8.963132659241907</v>
       </c>
       <c r="N92">
-        <v>0.001640668072575057</v>
+        <v>0.001640668072575058</v>
       </c>
       <c r="O92">
-        <v>0.03953592423576668</v>
+        <v>0.03953592423576624</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
@@ -3917,16 +3917,16 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="C93">
-        <v>0.06812147348699088</v>
+        <v>0.06812147348699087</v>
       </c>
       <c r="F93">
-        <v>-0.1599833343865946</v>
+        <v>-0.1599833343865945</v>
       </c>
       <c r="G93">
-        <v>-0.02232623420886664</v>
+        <v>-0.02232623420886669</v>
       </c>
       <c r="I93">
         <v>0.07888014452453573</v>
@@ -3935,16 +3935,16 @@
         <v>5</v>
       </c>
       <c r="K93">
-        <v>-31.10023152489617</v>
+        <v>-31.10023152489616</v>
       </c>
       <c r="L93">
-        <v>74.42268527201456</v>
+        <v>74.42268527201455</v>
       </c>
       <c r="M93">
-        <v>8.9808498831447</v>
+        <v>8.980849883144685</v>
       </c>
       <c r="N93">
-        <v>0.001626198216824324</v>
+        <v>0.001626198216824337</v>
       </c>
       <c r="O93">
         <v>-0.01640811638671913</v>
@@ -3955,19 +3955,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="F94">
-        <v>-0.1447710087605043</v>
+        <v>-0.1447710087605041</v>
       </c>
       <c r="G94">
-        <v>-0.06001042787425934</v>
+        <v>-0.06001042787425939</v>
       </c>
       <c r="H94">
-        <v>-0.004833821608517233</v>
+        <v>-0.00483382160851724</v>
       </c>
       <c r="I94">
-        <v>0.07101135312418827</v>
+        <v>0.07101135312418783</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -3982,10 +3982,10 @@
         <v>9.261559562223866</v>
       </c>
       <c r="N94">
-        <v>0.001413247247202283</v>
+        <v>0.001413247247202284</v>
       </c>
       <c r="O94">
-        <v>-0.02509092069055097</v>
+        <v>-0.02509092069055141</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
@@ -3996,37 +3996,37 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B95">
-        <v>-0.03595626728842447</v>
+        <v>-0.03595626728842451</v>
       </c>
       <c r="D95">
         <v>0.2220263946895384</v>
       </c>
       <c r="G95">
-        <v>-0.07160870490117322</v>
+        <v>-0.07160870490117331</v>
       </c>
       <c r="H95">
-        <v>-0.035308291933501</v>
+        <v>-0.03530829193350105</v>
       </c>
       <c r="I95">
-        <v>0.1517950908622782</v>
+        <v>0.1517950908622774</v>
       </c>
       <c r="J95">
         <v>6</v>
       </c>
       <c r="K95">
-        <v>-29.73951085660468</v>
+        <v>-29.73951085660469</v>
       </c>
       <c r="L95">
-        <v>74.70979094397859</v>
+        <v>74.7097909439786</v>
       </c>
       <c r="M95">
-        <v>9.267955555108728</v>
+        <v>9.267955555108742</v>
       </c>
       <c r="N95">
-        <v>0.001408734906603755</v>
+        <v>0.001408734906603747</v>
       </c>
       <c r="O95">
-        <v>0.0306229609854608</v>
+        <v>0.03062296098545991</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
@@ -4037,16 +4037,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B96">
-        <v>-0.0970001288299866</v>
+        <v>-0.09700012882998668</v>
       </c>
       <c r="G96">
-        <v>-0.1785214302459012</v>
+        <v>-0.1785214302459013</v>
       </c>
       <c r="H96">
-        <v>-0.0749058946338248</v>
+        <v>-0.07490589463382469</v>
       </c>
       <c r="I96">
-        <v>0.06897096603531039</v>
+        <v>0.06897096603531006</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -4061,10 +4061,10 @@
         <v>9.333959735227381</v>
       </c>
       <c r="N96">
-        <v>0.001363002493619136</v>
+        <v>0.001363002493619137</v>
       </c>
       <c r="O96">
-        <v>-0.0273423823058645</v>
+        <v>-0.02734238230586472</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
@@ -4075,37 +4075,37 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C97">
-        <v>0.01624684738029175</v>
+        <v>0.01624684738029164</v>
       </c>
       <c r="D97">
-        <v>0.224172609662348</v>
+        <v>0.2241726096623481</v>
       </c>
       <c r="G97">
-        <v>-0.05322272322471194</v>
+        <v>-0.05322272322471193</v>
       </c>
       <c r="H97">
-        <v>-0.05394406742758296</v>
+        <v>-0.05394406742758297</v>
       </c>
       <c r="I97">
-        <v>0.1500365720034564</v>
+        <v>0.1500365720034557</v>
       </c>
       <c r="J97">
         <v>6</v>
       </c>
       <c r="K97">
-        <v>-29.77368364255009</v>
+        <v>-29.7736836425501</v>
       </c>
       <c r="L97">
-        <v>74.77813651586942</v>
+        <v>74.77813651586943</v>
       </c>
       <c r="M97">
-        <v>9.336301126999558</v>
+        <v>9.336301126999572</v>
       </c>
       <c r="N97">
-        <v>0.001361407765859876</v>
+        <v>0.001361407765859868</v>
       </c>
       <c r="O97">
-        <v>0.02861322514680731</v>
+        <v>0.02861322514680642</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
@@ -4116,19 +4116,19 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B98">
-        <v>-0.04135807134573978</v>
+        <v>-0.0413580713457398</v>
       </c>
       <c r="C98">
-        <v>-0.01039922991005568</v>
+        <v>-0.01039922991005567</v>
       </c>
       <c r="D98">
-        <v>0.2324631219376157</v>
+        <v>0.2324631219376156</v>
       </c>
       <c r="G98">
         <v>-0.06687721054190328</v>
       </c>
       <c r="I98">
-        <v>0.1497005451988015</v>
+        <v>0.1497005451988012</v>
       </c>
       <c r="J98">
         <v>6</v>
@@ -4143,10 +4143,10 @@
         <v>9.349344856660622</v>
       </c>
       <c r="N98">
-        <v>0.001352557739140137</v>
+        <v>0.001352557739140138</v>
       </c>
       <c r="O98">
-        <v>0.02822919451291595</v>
+        <v>0.02822919451291561</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
@@ -4160,10 +4160,10 @@
         <v>-0.1402984926379091</v>
       </c>
       <c r="C99">
-        <v>0.07680688239564759</v>
+        <v>0.07680688239564762</v>
       </c>
       <c r="G99">
-        <v>-0.145287225758636</v>
+        <v>-0.1452872257586359</v>
       </c>
       <c r="I99">
         <v>0.06816756839782923</v>
@@ -4172,16 +4172,16 @@
         <v>5</v>
       </c>
       <c r="K99">
-        <v>-31.29101838614613</v>
+        <v>-31.29101838614612</v>
       </c>
       <c r="L99">
-        <v>74.80425899451448</v>
+        <v>74.80425899451447</v>
       </c>
       <c r="M99">
-        <v>9.362423605644622</v>
+        <v>9.362423605644608</v>
       </c>
       <c r="N99">
-        <v>0.001343741714621699</v>
+        <v>0.001343741714621709</v>
       </c>
       <c r="O99">
         <v>-0.0282288900437746</v>
@@ -4198,16 +4198,16 @@
         <v>-0.01555410797606223</v>
       </c>
       <c r="C100">
-        <v>0.04090551324756186</v>
+        <v>0.04090551324756178</v>
       </c>
       <c r="D100">
         <v>0.231153658781632</v>
       </c>
       <c r="H100">
-        <v>-0.0502535209240284</v>
+        <v>-0.05025352092402831</v>
       </c>
       <c r="I100">
-        <v>0.1456936633052948</v>
+        <v>0.1456936633052944</v>
       </c>
       <c r="J100">
         <v>6</v>
@@ -4222,10 +4222,10 @@
         <v>9.50448611768752</v>
       </c>
       <c r="N100">
-        <v>0.001251605079225723</v>
+        <v>0.001251605079225724</v>
       </c>
       <c r="O100">
-        <v>0.02364990092033692</v>
+        <v>0.02364990092033648</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
@@ -4233,25 +4233,25 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>1.116776571973539</v>
+        <v>1.116776571973543</v>
       </c>
       <c r="B101">
-        <v>-0.7615084367937354</v>
+        <v>-0.7615084367937356</v>
       </c>
       <c r="C101">
-        <v>-0.2761001208996819</v>
+        <v>-0.2761001208996826</v>
       </c>
       <c r="E101">
-        <v>-0.1056267778437482</v>
+        <v>-0.1056267778437487</v>
       </c>
       <c r="F101">
-        <v>-1.167272018564393</v>
+        <v>-1.167272018564394</v>
       </c>
       <c r="G101">
-        <v>0.2265622055883673</v>
+        <v>0.226562205588368</v>
       </c>
       <c r="H101">
-        <v>1.053024137617803</v>
+        <v>1.053024137617805</v>
       </c>
       <c r="I101">
         <v>0.3000310957532584</v>
@@ -4260,16 +4260,16 @@
         <v>8</v>
       </c>
       <c r="K101">
-        <v>-26.57008635906578</v>
+        <v>-26.57008635906577</v>
       </c>
       <c r="L101">
-        <v>75.14017271813155</v>
+        <v>75.14017271813154</v>
       </c>
       <c r="M101">
-        <v>9.69833732926169</v>
+        <v>9.698337329261676</v>
       </c>
       <c r="N101">
-        <v>0.001135986214615055</v>
+        <v>0.001135986214615064</v>
       </c>
       <c r="O101">
         <v>0.1384998101578565</v>
@@ -4280,19 +4280,19 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B102">
-        <v>-0.471691707124247</v>
+        <v>-0.4716917071242466</v>
       </c>
       <c r="D102">
         <v>0.1530695913678639</v>
       </c>
       <c r="E102">
-        <v>-0.05822322786474334</v>
+        <v>-0.05822322786474354</v>
       </c>
       <c r="F102">
-        <v>-0.7092167855043611</v>
+        <v>-0.7092167855043606</v>
       </c>
       <c r="G102">
         <v>0.1872890443243181</v>
@@ -4301,7 +4301,7 @@
         <v>0.5488764253326278</v>
       </c>
       <c r="I102">
-        <v>0.2980113291549339</v>
+        <v>0.2980113291549337</v>
       </c>
       <c r="J102">
         <v>8</v>
@@ -4319,7 +4319,7 @@
         <v>0.001083242486011673</v>
       </c>
       <c r="O102">
-        <v>0.1360139435753033</v>
+        <v>0.1360139435753029</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
@@ -4327,25 +4327,25 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B103">
-        <v>-0.1292309551360003</v>
+        <v>-0.1292309551360002</v>
       </c>
       <c r="C103">
-        <v>0.03359292254429876</v>
+        <v>0.03359292254429874</v>
       </c>
       <c r="D103">
         <v>0.1458699287542489</v>
       </c>
       <c r="E103">
-        <v>-0.1168439908708127</v>
+        <v>-0.1168439908708128</v>
       </c>
       <c r="F103">
-        <v>-0.1673969051443725</v>
+        <v>-0.1673969051443724</v>
       </c>
       <c r="I103">
-        <v>0.2163713215214524</v>
+        <v>0.2163713215214518</v>
       </c>
       <c r="J103">
         <v>7</v>
@@ -4354,16 +4354,16 @@
         <v>-28.43292600058524</v>
       </c>
       <c r="L103">
-        <v>75.34585200117047</v>
+        <v>75.34585200117048</v>
       </c>
       <c r="M103">
-        <v>9.904016612300609</v>
+        <v>9.904016612300623</v>
       </c>
       <c r="N103">
-        <v>0.001024968154865578</v>
+        <v>0.001024968154865571</v>
       </c>
       <c r="O103">
-        <v>0.07125489958098064</v>
+        <v>0.07125489958097986</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
@@ -4371,25 +4371,25 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B104">
-        <v>-0.1108128429900064</v>
+        <v>-0.1108128429900063</v>
       </c>
       <c r="D104">
         <v>0.1600396480246897</v>
       </c>
       <c r="E104">
-        <v>-0.1235437799407406</v>
+        <v>-0.1235437799407407</v>
       </c>
       <c r="F104">
         <v>-0.1544128468811077</v>
       </c>
       <c r="G104">
-        <v>-0.003994517421666951</v>
+        <v>-0.003994517421666905</v>
       </c>
       <c r="I104">
-        <v>0.2150479042841915</v>
+        <v>0.2150479042841912</v>
       </c>
       <c r="J104">
         <v>7</v>
@@ -4404,10 +4404,10 @@
         <v>9.959701062742326</v>
       </c>
       <c r="N104">
-        <v>0.0009968243714718159</v>
+        <v>0.0009968243714718165</v>
       </c>
       <c r="O104">
-        <v>0.0696864050775603</v>
+        <v>0.06968640507755997</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
@@ -4430,7 +4430,7 @@
         <v>-0.1496572779939956</v>
       </c>
       <c r="I105">
-        <v>0.1334694157397726</v>
+        <v>0.1334694157397722</v>
       </c>
       <c r="J105">
         <v>6</v>
@@ -4445,10 +4445,10 @@
         <v>9.973335838914565</v>
       </c>
       <c r="N105">
-        <v>0.0009900517449203746</v>
+        <v>0.0009900517449203754</v>
       </c>
       <c r="O105">
-        <v>0.009679332274025732</v>
+        <v>0.009679332274025398</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
@@ -4459,19 +4459,19 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C106">
-        <v>0.07573145759456768</v>
+        <v>0.07573145759456795</v>
       </c>
       <c r="E106">
         <v>-0.1640803072004751</v>
       </c>
       <c r="F106">
-        <v>-0.08701720349723538</v>
+        <v>-0.08701720349723509</v>
       </c>
       <c r="H106">
-        <v>-0.08381710295544752</v>
+        <v>-0.08381710295544799</v>
       </c>
       <c r="I106">
-        <v>0.132005756058925</v>
+        <v>0.1320057560589246</v>
       </c>
       <c r="J106">
         <v>6</v>
@@ -4486,10 +4486,10 @@
         <v>10.0290292255379</v>
       </c>
       <c r="N106">
-        <v>0.0009628624012234298</v>
+        <v>0.0009628624012234305</v>
       </c>
       <c r="O106">
-        <v>0.00800657835305707</v>
+        <v>0.008006578353056737</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
@@ -4500,37 +4500,37 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B107">
-        <v>-0.08618238500343281</v>
+        <v>-0.08618238500343291</v>
       </c>
       <c r="E107">
-        <v>-0.179539604141568</v>
+        <v>-0.1795396041415679</v>
       </c>
       <c r="G107">
-        <v>-0.1110315094532005</v>
+        <v>-0.1110315094532006</v>
       </c>
       <c r="H107">
-        <v>-0.07904369104286235</v>
+        <v>-0.0790436910428622</v>
       </c>
       <c r="I107">
-        <v>0.1298912821501761</v>
+        <v>0.1298912821501753</v>
       </c>
       <c r="J107">
         <v>6</v>
       </c>
       <c r="K107">
-        <v>-30.16019357209545</v>
+        <v>-30.16019357209546</v>
       </c>
       <c r="L107">
-        <v>75.55115637496013</v>
+        <v>75.55115637496014</v>
       </c>
       <c r="M107">
-        <v>10.10932098609027</v>
+        <v>10.10932098609028</v>
       </c>
       <c r="N107">
-        <v>0.0009249730812810772</v>
+        <v>0.0009249730812810713</v>
       </c>
       <c r="O107">
-        <v>0.005590036743058358</v>
+        <v>0.005590036743057469</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
@@ -4541,19 +4541,19 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C108">
-        <v>0.1067672593621828</v>
+        <v>0.1067672593621829</v>
       </c>
       <c r="E108">
         <v>-0.1600506988026271</v>
       </c>
       <c r="G108">
-        <v>-0.05459754202376288</v>
+        <v>-0.05459754202376291</v>
       </c>
       <c r="H108">
-        <v>-0.1623427555643555</v>
+        <v>-0.1623427555643557</v>
       </c>
       <c r="I108">
-        <v>0.1294933436660904</v>
+        <v>0.1294933436660901</v>
       </c>
       <c r="J108">
         <v>6</v>
@@ -4568,10 +4568,10 @@
         <v>10.12440986833087</v>
       </c>
       <c r="N108">
-        <v>0.0009180209343386242</v>
+        <v>0.000918020934338625</v>
       </c>
       <c r="O108">
-        <v>0.005135249904103412</v>
+        <v>0.005135249904102968</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
@@ -4582,19 +4582,19 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C109">
-        <v>0.02315892003604092</v>
+        <v>0.02315892003604079</v>
       </c>
       <c r="E109">
         <v>-0.1667787833195987</v>
       </c>
       <c r="F109">
-        <v>-0.1377807940142876</v>
+        <v>-0.1377807940142875</v>
       </c>
       <c r="G109">
-        <v>0.007727958097920759</v>
+        <v>0.007727958097920612</v>
       </c>
       <c r="I109">
-        <v>0.1277975608562699</v>
+        <v>0.1277975608562695</v>
       </c>
       <c r="J109">
         <v>6</v>
@@ -4609,10 +4609,10 @@
         <v>10.18863269304885</v>
       </c>
       <c r="N109">
-        <v>0.0008890102651449295</v>
+        <v>0.0008890102651449302</v>
       </c>
       <c r="O109">
-        <v>0.003197212407165639</v>
+        <v>0.003197212407165084</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
@@ -4626,16 +4626,16 @@
         <v>-0.1744874300459911</v>
       </c>
       <c r="F110">
-        <v>-0.1104553913824658</v>
+        <v>-0.1104553913824655</v>
       </c>
       <c r="G110">
-        <v>-0.01818577714929731</v>
+        <v>-0.01818577714929752</v>
       </c>
       <c r="H110">
-        <v>-0.02901191859519326</v>
+        <v>-0.02901191859519353</v>
       </c>
       <c r="I110">
-        <v>0.1277522850589516</v>
+        <v>0.1277522850589509</v>
       </c>
       <c r="J110">
         <v>6</v>
@@ -4644,16 +4644,16 @@
         <v>-30.20070591396929</v>
       </c>
       <c r="L110">
-        <v>75.6321810587078</v>
+        <v>75.63218105870781</v>
       </c>
       <c r="M110">
-        <v>10.19034566983794</v>
+        <v>10.19034566983795</v>
       </c>
       <c r="N110">
-        <v>0.0008882491641538098</v>
+        <v>0.0008882491641538043</v>
       </c>
       <c r="O110">
-        <v>0.003145468638801829</v>
+        <v>0.003145468638800941</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
@@ -4661,43 +4661,43 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="C111">
-        <v>-0.1506693508519961</v>
+        <v>-0.150669350851996</v>
       </c>
       <c r="D111">
-        <v>0.2537302821852528</v>
+        <v>0.2537302821852529</v>
       </c>
       <c r="E111">
         <v>-0.1167140211369703</v>
       </c>
       <c r="F111">
-        <v>-0.1764479890845066</v>
+        <v>-0.1764479890845065</v>
       </c>
       <c r="H111">
-        <v>0.1523890301488712</v>
+        <v>0.1523890301488708</v>
       </c>
       <c r="I111">
-        <v>0.2080554866302059</v>
+        <v>0.2080554866302051</v>
       </c>
       <c r="J111">
         <v>7</v>
       </c>
       <c r="K111">
-        <v>-28.60710077143758</v>
+        <v>-28.60710077143759</v>
       </c>
       <c r="L111">
-        <v>75.69420154287516</v>
+        <v>75.69420154287518</v>
       </c>
       <c r="M111">
-        <v>10.2523661540053</v>
+        <v>10.25236615400532</v>
       </c>
       <c r="N111">
-        <v>0.0008611270476718669</v>
+        <v>0.0008611270476718614</v>
       </c>
       <c r="O111">
-        <v>0.06139909526542919</v>
+        <v>0.06139909526542831</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
@@ -4717,10 +4717,10 @@
         <v>-0.1706630168722192</v>
       </c>
       <c r="G112">
-        <v>-0.09682277282239037</v>
+        <v>-0.09682277282239042</v>
       </c>
       <c r="I112">
-        <v>0.1195491655903771</v>
+        <v>0.1195491655903763</v>
       </c>
       <c r="J112">
         <v>6</v>
@@ -4729,16 +4729,16 @@
         <v>-30.35515627234582</v>
       </c>
       <c r="L112">
-        <v>75.94108177546086</v>
+        <v>75.94108177546087</v>
       </c>
       <c r="M112">
-        <v>10.499246386591</v>
+        <v>10.49924638659101</v>
       </c>
       <c r="N112">
-        <v>0.0007611282984124466</v>
+        <v>0.0007611282984124418</v>
       </c>
       <c r="O112">
-        <v>-0.006229525039568973</v>
+        <v>-0.006229525039569861</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
@@ -4746,25 +4746,25 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="D113">
-        <v>0.2118431699629244</v>
+        <v>0.2118431699629247</v>
       </c>
       <c r="E113">
-        <v>-0.1149559226993427</v>
+        <v>-0.1149559226993426</v>
       </c>
       <c r="F113">
-        <v>-0.1582651581820379</v>
+        <v>-0.1582651581820378</v>
       </c>
       <c r="G113">
-        <v>0.07053729210496774</v>
+        <v>0.07053729210496773</v>
       </c>
       <c r="H113">
-        <v>0.05792530325740493</v>
+        <v>0.05792530325740487</v>
       </c>
       <c r="I113">
-        <v>0.2010168210333181</v>
+        <v>0.2010168210333177</v>
       </c>
       <c r="J113">
         <v>7</v>
@@ -4779,10 +4779,10 @@
         <v>10.54436871497387</v>
       </c>
       <c r="N113">
-        <v>0.0007441486187950709</v>
+        <v>0.0007441486187950715</v>
       </c>
       <c r="O113">
-        <v>0.05305697307652513</v>
+        <v>0.05305697307652479</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
@@ -4793,22 +4793,22 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C114">
-        <v>-0.02676190861307266</v>
+        <v>-0.02676190861307281</v>
       </c>
       <c r="D114">
-        <v>0.204914533927206</v>
+        <v>0.2049145339272061</v>
       </c>
       <c r="E114">
-        <v>-0.1273474095752168</v>
+        <v>-0.1273474095752167</v>
       </c>
       <c r="F114">
         <v>-0.1080746422113721</v>
       </c>
       <c r="G114">
-        <v>0.02592599032924926</v>
+        <v>0.02592599032924912</v>
       </c>
       <c r="I114">
-        <v>0.1991678169582508</v>
+        <v>0.1991678169582505</v>
       </c>
       <c r="J114">
         <v>7</v>
@@ -4823,10 +4823,10 @@
         <v>10.62064896967675</v>
       </c>
       <c r="N114">
-        <v>0.0007163011248480121</v>
+        <v>0.0007163011248480127</v>
       </c>
       <c r="O114">
-        <v>0.05086556083940841</v>
+        <v>0.05086556083940796</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
@@ -4834,25 +4834,25 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="C115">
-        <v>-0.1840275947959913</v>
+        <v>-0.1840275947959915</v>
       </c>
       <c r="D115">
-        <v>0.332292516801545</v>
+        <v>0.3322925168015452</v>
       </c>
       <c r="F115">
         <v>-0.3051439556801153</v>
       </c>
       <c r="G115">
-        <v>0.1046627883589349</v>
+        <v>0.1046627883589348</v>
       </c>
       <c r="H115">
         <v>0.290118014794836</v>
       </c>
       <c r="I115">
-        <v>0.1941772007585214</v>
+        <v>0.1941772007585211</v>
       </c>
       <c r="J115">
         <v>7</v>
@@ -4867,10 +4867,10 @@
         <v>10.82565983521513</v>
       </c>
       <c r="N115">
-        <v>0.0006465142315591179</v>
+        <v>0.0006465142315591184</v>
       </c>
       <c r="O115">
-        <v>0.04495075645454394</v>
+        <v>0.04495075645454349</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
@@ -4878,13 +4878,13 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B116">
-        <v>-0.1433840879997322</v>
+        <v>-0.1433840879997321</v>
       </c>
       <c r="C116">
-        <v>0.0660506272247911</v>
+        <v>0.06605062722479114</v>
       </c>
       <c r="D116">
         <v>0.1618906768672503</v>
@@ -4893,10 +4893,10 @@
         <v>-0.1867311331984827</v>
       </c>
       <c r="G116">
-        <v>-0.01780059000487717</v>
+        <v>-0.01780059000487715</v>
       </c>
       <c r="I116">
-        <v>0.1933265434696492</v>
+        <v>0.1933265434696488</v>
       </c>
       <c r="J116">
         <v>7</v>
@@ -4911,10 +4911,10 @@
         <v>10.86047751995258</v>
       </c>
       <c r="N116">
-        <v>0.0006353565699910548</v>
+        <v>0.0006353565699910553</v>
       </c>
       <c r="O116">
-        <v>0.04394257003810276</v>
+        <v>0.04394257003810231</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
@@ -4922,22 +4922,22 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>1.11677657197354</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="B117">
-        <v>-0.2098347362894725</v>
+        <v>-0.2098347362894724</v>
       </c>
       <c r="C117">
-        <v>0.0995333874745308</v>
+        <v>0.09953338747453079</v>
       </c>
       <c r="E117">
         <v>-0.1319232554553064</v>
       </c>
       <c r="F117">
-        <v>-0.2219797264778295</v>
+        <v>-0.2219797264778294</v>
       </c>
       <c r="G117">
-        <v>-0.0211857725146576</v>
+        <v>-0.02118577251465765</v>
       </c>
       <c r="I117">
         <v>0.1891715223373908</v>
@@ -4946,16 +4946,16 @@
         <v>7</v>
       </c>
       <c r="K117">
-        <v>-28.99592667697556</v>
+        <v>-28.99592667697555</v>
       </c>
       <c r="L117">
-        <v>76.47185335395112</v>
+        <v>76.4718533539511</v>
       </c>
       <c r="M117">
-        <v>11.03001796508126</v>
+        <v>11.03001796508124</v>
       </c>
       <c r="N117">
-        <v>0.0005837169240816599</v>
+        <v>0.0005837169240816645</v>
       </c>
       <c r="O117">
         <v>0.03901810054801869</v>
@@ -4978,10 +4978,10 @@
         <v>-0.1269126913309042</v>
       </c>
       <c r="H118">
-        <v>-0.1701294924291394</v>
+        <v>-0.1701294924291395</v>
       </c>
       <c r="I118">
-        <v>0.1049030084778934</v>
+        <v>0.1049030084778926</v>
       </c>
       <c r="J118">
         <v>6</v>
@@ -4990,16 +4990,16 @@
         <v>-30.62737318497007</v>
       </c>
       <c r="L118">
-        <v>76.48551560070936</v>
+        <v>76.48551560070938</v>
       </c>
       <c r="M118">
-        <v>11.0436802118395</v>
+        <v>11.04368021183951</v>
       </c>
       <c r="N118">
-        <v>0.0005797430701510846</v>
+        <v>0.0005797430701510809</v>
       </c>
       <c r="O118">
-        <v>-0.02296799031097896</v>
+        <v>-0.02296799031097985</v>
       </c>
       <c r="P118" t="b">
         <v>1</v>
@@ -5010,22 +5010,22 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B119">
-        <v>-0.03815572736839958</v>
+        <v>-0.03815572736839962</v>
       </c>
       <c r="D119">
-        <v>0.1847203504346592</v>
+        <v>0.1847203504346591</v>
       </c>
       <c r="E119">
-        <v>-0.1337276604223679</v>
+        <v>-0.133727660422368</v>
       </c>
       <c r="G119">
-        <v>-0.03930378395492701</v>
+        <v>-0.03930378395492699</v>
       </c>
       <c r="H119">
-        <v>-0.0450436717277948</v>
+        <v>-0.04504367172779473</v>
       </c>
       <c r="I119">
-        <v>0.18325422362003</v>
+        <v>0.1832542236200296</v>
       </c>
       <c r="J119">
         <v>7</v>
@@ -5040,10 +5040,10 @@
         <v>11.26997226216767</v>
       </c>
       <c r="N119">
-        <v>0.000517722299799293</v>
+        <v>0.0005177222997992934</v>
       </c>
       <c r="O119">
-        <v>0.03200500577188736</v>
+        <v>0.03200500577188692</v>
       </c>
       <c r="P119" t="b">
         <v>1</v>
@@ -5054,22 +5054,22 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B120">
-        <v>-0.03591508666951135</v>
+        <v>-0.03591508666951137</v>
       </c>
       <c r="C120">
-        <v>-0.03856817685536528</v>
+        <v>-0.03856817685536531</v>
       </c>
       <c r="D120">
         <v>0.2061752602806798</v>
       </c>
       <c r="E120">
-        <v>-0.1367713341007164</v>
+        <v>-0.1367713341007165</v>
       </c>
       <c r="G120">
-        <v>-0.0369041509951324</v>
+        <v>-0.03690415099513245</v>
       </c>
       <c r="I120">
-        <v>0.1816582811939931</v>
+        <v>0.1816582811939927</v>
       </c>
       <c r="J120">
         <v>7</v>
@@ -5084,10 +5084,10 @@
         <v>11.33439219925256</v>
       </c>
       <c r="N120">
-        <v>0.0005013121842047713</v>
+        <v>0.0005013121842047717</v>
       </c>
       <c r="O120">
-        <v>0.03011351845213994</v>
+        <v>0.0301135184521395</v>
       </c>
       <c r="P120" t="b">
         <v>1</v>
@@ -5098,22 +5098,22 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C121">
-        <v>-0.02037252958054671</v>
+        <v>-0.02037252958054691</v>
       </c>
       <c r="D121">
-        <v>0.2022554734085363</v>
+        <v>0.2022554734085365</v>
       </c>
       <c r="E121">
         <v>-0.1357009282553198</v>
       </c>
       <c r="G121">
-        <v>-0.02499547086132116</v>
+        <v>-0.02499547086132131</v>
       </c>
       <c r="H121">
         <v>-0.04016184490125509</v>
       </c>
       <c r="I121">
-        <v>0.181358258565798</v>
+        <v>0.1813582585657977</v>
       </c>
       <c r="J121">
         <v>7</v>
@@ -5128,10 +5128,10 @@
         <v>11.34648853019513</v>
       </c>
       <c r="N121">
-        <v>0.0004982893157809245</v>
+        <v>0.0004982893157809248</v>
       </c>
       <c r="O121">
-        <v>0.02975793607798283</v>
+        <v>0.02975793607798238</v>
       </c>
       <c r="P121" t="b">
         <v>1</v>
@@ -5142,10 +5142,10 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B122">
-        <v>-0.02194101318756653</v>
+        <v>-0.02194101318756651</v>
       </c>
       <c r="C122">
-        <v>-0.003296393023024736</v>
+        <v>-0.003296393023024753</v>
       </c>
       <c r="D122">
         <v>0.1995524108275172</v>
@@ -5154,16 +5154,16 @@
         <v>-0.1415308105585724</v>
       </c>
       <c r="H122">
-        <v>-0.03804351608663861</v>
+        <v>-0.03804351608663863</v>
       </c>
       <c r="I122">
-        <v>0.1811480424161562</v>
+        <v>0.1811480424161559</v>
       </c>
       <c r="J122">
         <v>7</v>
       </c>
       <c r="K122">
-        <v>-29.15839839291875</v>
+        <v>-29.15839839291874</v>
       </c>
       <c r="L122">
         <v>76.79679678583749</v>
@@ -5172,10 +5172,10 @@
         <v>11.35496139696762</v>
       </c>
       <c r="N122">
-        <v>0.0004961828114706506</v>
+        <v>0.0004961828114706511</v>
       </c>
       <c r="O122">
-        <v>0.02950879101174075</v>
+        <v>0.02950879101174031</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
@@ -5186,19 +5186,19 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C123">
-        <v>0.1398672809106142</v>
+        <v>0.1398672809106143</v>
       </c>
       <c r="F123">
-        <v>-0.0659218846758728</v>
+        <v>-0.06592188467587264</v>
       </c>
       <c r="G123">
-        <v>-0.06238251197350426</v>
+        <v>-0.06238251197350435</v>
       </c>
       <c r="H123">
-        <v>-0.135197436730021</v>
+        <v>-0.1351974367300211</v>
       </c>
       <c r="I123">
-        <v>0.08782416616500022</v>
+        <v>0.08782416616499977</v>
       </c>
       <c r="J123">
         <v>6</v>
@@ -5213,10 +5213,10 @@
         <v>11.6674029465116</v>
       </c>
       <c r="N123">
-        <v>0.000424420052873249</v>
+        <v>0.0004244200528732494</v>
       </c>
       <c r="O123">
-        <v>-0.04248666723999972</v>
+        <v>-0.04248666724000016</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
@@ -5227,22 +5227,22 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B124">
-        <v>-0.0426871490288717</v>
+        <v>-0.04268714902887168</v>
       </c>
       <c r="C124">
-        <v>0.03281684006641616</v>
+        <v>0.03281684006641612</v>
       </c>
       <c r="D124">
         <v>0.206561842663003</v>
       </c>
       <c r="G124">
-        <v>-0.06962273517299836</v>
+        <v>-0.06962273517299834</v>
       </c>
       <c r="H124">
-        <v>-0.05547056053737466</v>
+        <v>-0.05547056053737465</v>
       </c>
       <c r="I124">
-        <v>0.1525936129571899</v>
+        <v>0.1525936129571895</v>
       </c>
       <c r="J124">
         <v>7</v>
@@ -5257,10 +5257,10 @@
         <v>12.48610463581868</v>
       </c>
       <c r="N124">
-        <v>0.0002818493789102268</v>
+        <v>0.000281849378910227</v>
       </c>
       <c r="O124">
-        <v>-0.004333495754441641</v>
+        <v>-0.004333495754442085</v>
       </c>
       <c r="P124" t="b">
         <v>1</v>
@@ -5271,16 +5271,16 @@
         <v>1.116776571973541</v>
       </c>
       <c r="B125">
-        <v>-0.09695040082870257</v>
+        <v>-0.0969504008287026</v>
       </c>
       <c r="C125">
-        <v>0.1205135909010534</v>
+        <v>0.1205135909010533</v>
       </c>
       <c r="E125">
         <v>-0.1519204348509226</v>
       </c>
       <c r="G125">
-        <v>-0.0867741329393871</v>
+        <v>-0.08677413293938716</v>
       </c>
       <c r="H125">
         <v>-0.1423208478560747</v>
@@ -5292,16 +5292,16 @@
         <v>7</v>
       </c>
       <c r="K125">
-        <v>-29.87816897096094</v>
+        <v>-29.87816897096093</v>
       </c>
       <c r="L125">
-        <v>78.23633794192188</v>
+        <v>78.23633794192186</v>
       </c>
       <c r="M125">
-        <v>12.79450255305201</v>
+        <v>12.794502553052</v>
       </c>
       <c r="N125">
-        <v>0.0002415735187644729</v>
+        <v>0.0002415735187644748</v>
       </c>
       <c r="O125">
         <v>-0.01376337974751607</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="C126">
         <v>-0.2074740690018265</v>
@@ -5321,19 +5321,19 @@
         <v>0.3063970299294074</v>
       </c>
       <c r="E126">
-        <v>-0.1255016329141809</v>
+        <v>-0.1255016329141808</v>
       </c>
       <c r="F126">
-        <v>-0.2892668471602881</v>
+        <v>-0.2892668471602878</v>
       </c>
       <c r="G126">
-        <v>0.1225534520324863</v>
+        <v>0.122553452032486</v>
       </c>
       <c r="H126">
-        <v>0.2849622857003661</v>
+        <v>0.2849622857003656</v>
       </c>
       <c r="I126">
-        <v>0.2208480415400123</v>
+        <v>0.2208480415400116</v>
       </c>
       <c r="J126">
         <v>8</v>
@@ -5342,16 +5342,16 @@
         <v>-28.33839439377424</v>
       </c>
       <c r="L126">
-        <v>78.67678878754848</v>
+        <v>78.67678878754849</v>
       </c>
       <c r="M126">
-        <v>13.23495339867861</v>
+        <v>13.23495339867863</v>
       </c>
       <c r="N126">
-        <v>0.0001938235927138914</v>
+        <v>0.0001938235927138902</v>
       </c>
       <c r="O126">
-        <v>0.04104374343386119</v>
+        <v>0.04104374343386041</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
@@ -5362,37 +5362,37 @@
         <v>1.116776571973541</v>
       </c>
       <c r="C127">
-        <v>0.07755882456761816</v>
+        <v>0.07755882456761844</v>
       </c>
       <c r="E127">
         <v>-0.1606122197721199</v>
       </c>
       <c r="F127">
-        <v>-0.06946096130320408</v>
+        <v>-0.06946096130320355</v>
       </c>
       <c r="G127">
-        <v>-0.02282702777414202</v>
+        <v>-0.02282702777414235</v>
       </c>
       <c r="H127">
-        <v>-0.09937815813974453</v>
+        <v>-0.09937815813974521</v>
       </c>
       <c r="I127">
-        <v>0.1325632513643698</v>
+        <v>0.1325632513643697</v>
       </c>
       <c r="J127">
         <v>7</v>
       </c>
       <c r="K127">
-        <v>-30.10944666775595</v>
+        <v>-30.10944666775594</v>
       </c>
       <c r="L127">
-        <v>78.6988933355119</v>
+        <v>78.69889333551188</v>
       </c>
       <c r="M127">
-        <v>13.25705794664204</v>
+        <v>13.25705794664202</v>
       </c>
       <c r="N127">
-        <v>0.0001916931958143208</v>
+        <v>0.0001916931958143223</v>
       </c>
       <c r="O127">
         <v>-0.02807318356815447</v>
@@ -5403,16 +5403,16 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.11677657197354</v>
+        <v>1.116776571973541</v>
       </c>
       <c r="B128">
-        <v>-0.1285649466597106</v>
+        <v>-0.1285649466597105</v>
       </c>
       <c r="C128">
-        <v>0.03429333836486456</v>
+        <v>0.03429333836486455</v>
       </c>
       <c r="D128">
-        <v>0.1463765272759375</v>
+        <v>0.1463765272759376</v>
       </c>
       <c r="E128">
         <v>-0.1172559342630575</v>
@@ -5421,10 +5421,10 @@
         <v>-0.1681491754062986</v>
       </c>
       <c r="G128">
-        <v>0.003012019063557803</v>
+        <v>0.003012019063557924</v>
       </c>
       <c r="I128">
-        <v>0.2163830442118363</v>
+        <v>0.216383044211836</v>
       </c>
       <c r="J128">
         <v>8</v>
@@ -5439,10 +5439,10 @@
         <v>13.42352294522735</v>
       </c>
       <c r="N128">
-        <v>0.0001763840387500866</v>
+        <v>0.0001763840387500868</v>
       </c>
       <c r="O128">
-        <v>0.0355483621068754</v>
+        <v>0.03554836210687506</v>
       </c>
       <c r="P128" t="b">
         <v>1</v>
@@ -5456,28 +5456,28 @@
         <v>-0.0370061658243047</v>
       </c>
       <c r="C129">
-        <v>-0.005659518264932663</v>
+        <v>-0.005659518264932854</v>
       </c>
       <c r="D129">
-        <v>0.1871968355897576</v>
+        <v>0.1871968355897577</v>
       </c>
       <c r="E129">
         <v>-0.1344105167519429</v>
       </c>
       <c r="G129">
-        <v>-0.03948132052893127</v>
+        <v>-0.03948132052893132</v>
       </c>
       <c r="H129">
-        <v>-0.04161624430445773</v>
+        <v>-0.04161624430445756</v>
       </c>
       <c r="I129">
-        <v>0.1832771527224234</v>
+        <v>0.1832771527224227</v>
       </c>
       <c r="J129">
         <v>8</v>
       </c>
       <c r="K129">
-        <v>-29.11544060243136</v>
+        <v>-29.11544060243137</v>
       </c>
       <c r="L129">
         <v>80.23088120486273</v>
@@ -5486,10 +5486,10 @@
         <v>14.78904581599286</v>
       </c>
       <c r="N129">
-        <v>8.911273208277402e-005</v>
+        <v>8.911273208277409e-05</v>
       </c>
       <c r="O129">
-        <v>-0.005197350495478981</v>
+        <v>-0.005197350495479647</v>
       </c>
       <c r="P129" t="b">
         <v>1</v>
